--- a/puts_output.xlsx
+++ b/puts_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-06-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-06-29" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPY230628P00380000</t>
+          <t>SPY230629P00380000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -563,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2500075</v>
+        <v>0.5937540625000001</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPY230628P00390000</t>
+          <t>SPY230629P00390000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -618,13 +618,13 @@
         <v>390</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2500075</v>
+        <v>0.500005</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPY230628P00400000</t>
+          <t>SPY230629P00400000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -688,28 +688,28 @@
         <v>400</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2500075</v>
+        <v>0.414068359375</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPY230628P00404000</t>
+          <t>SPY230629P00410000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -755,29 +755,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="E5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.02</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J5" t="n">
-        <v>40</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>515</v>
+      </c>
       <c r="L5" t="n">
-        <v>0.12500875</v>
+        <v>0.32813171875</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -805,7 +807,7 @@
         <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="6">
@@ -814,7 +816,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPY230628P00406000</t>
+          <t>SPY230629P00420000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -823,29 +825,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="J6" t="n">
-        <v>49</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>1029</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11785</v>
+      </c>
       <c r="L6" t="n">
-        <v>0.12500875</v>
+        <v>0.210945390625</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -873,7 +877,7 @@
         <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="7">
@@ -882,7 +886,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPY230628P00408000</t>
+          <t>SPY230629P00424000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -891,29 +895,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-66.66667</v>
       </c>
       <c r="J7" t="n">
-        <v>21</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>1233</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1599</v>
+      </c>
       <c r="L7" t="n">
-        <v>0.12500875</v>
+        <v>0.16211775390625</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -929,10 +935,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -941,7 +947,7 @@
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +956,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPY230628P00410000</t>
+          <t>SPY230629P00426000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -959,31 +965,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="E8" t="n">
         <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J8" t="n">
-        <v>148</v>
+        <v>3213</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>3359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.12500875</v>
+        <v>0.145516357421875</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -999,19 +1005,19 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S8" t="n">
         <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1026,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPY230628P00412000</t>
+          <t>SPY230629P00428000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1029,27 +1035,29 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.04</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0.060000002</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-66.66667</v>
       </c>
       <c r="J9" t="n">
-        <v>124</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>5373</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4292</v>
+      </c>
       <c r="L9" t="n">
         <v>0.12500875</v>
       </c>
@@ -1067,19 +1075,19 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
+        <v>-0.003</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S9" t="n">
         <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="10">
@@ -1088,7 +1096,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPY230628P00414000</t>
+          <t>SPY230629P00429000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1097,29 +1105,31 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="E10" t="n">
         <v>0.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-54.545456</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>3068</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4485</v>
+      </c>
       <c r="L10" t="n">
-        <v>0.12500875</v>
+        <v>0.11524322265625</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1135,19 +1145,19 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S10" t="n">
         <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="11">
@@ -1156,7 +1166,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPY230628P00416000</t>
+          <t>SPY230629P00430000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1165,29 +1175,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J11" t="n">
-        <v>40</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>22011</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32531</v>
+      </c>
       <c r="L11" t="n">
-        <v>0.12500875</v>
+        <v>0.1079190771484375</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1203,19 +1215,19 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="12">
@@ -1224,7 +1236,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPY230628P00418000</t>
+          <t>SPY230629P00431000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1233,29 +1245,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.09999999399999999</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-52.631577</v>
       </c>
       <c r="J12" t="n">
-        <v>111</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>26320</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5431</v>
+      </c>
       <c r="L12" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.1001066552734375</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1271,19 +1285,19 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>-0</v>
+        <v>-0.018</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S12" t="n">
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="13">
@@ -1292,7 +1306,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPY230628P00420000</t>
+          <t>SPY230629P00432000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1301,31 +1315,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0.120000005</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-42.857143</v>
       </c>
       <c r="J13" t="n">
-        <v>1107</v>
+        <v>39366</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7048</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.09620044433593751</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1341,19 +1355,19 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0</v>
+        <v>-0.042</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>-0.095</v>
       </c>
     </row>
     <row r="14">
@@ -1362,7 +1376,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPY230628P00422000</t>
+          <t>SPY230629P00433000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1371,29 +1385,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0.13999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-31.818178</v>
       </c>
       <c r="J14" t="n">
-        <v>523</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>50020</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9346</v>
+      </c>
       <c r="L14" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.09497975341796877</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1409,19 +1425,19 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
+        <v>-0.099</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="15">
@@ -1430,7 +1446,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPY230628P00424000</t>
+          <t>SPY230629P00434000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1439,57 +1455,59 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E15" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.120000005</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-18.181818</v>
+      </c>
+      <c r="J15" t="n">
+        <v>92254</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6820</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.09632251342773437</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.208</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.13</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1248</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>-0.002</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>-0.302</v>
       </c>
     </row>
     <row r="16">
@@ -1498,7 +1516,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPY230628P00426000</t>
+          <t>SPY230629P00435000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1507,31 +1525,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0.08000003999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-8.163270000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>1719</v>
+        <v>152743</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>6744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0312596875</v>
+        <v>0.09571216796875001</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1547,19 +1565,19 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
+        <v>-0.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.171</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S16" t="n">
-        <v>-0</v>
+        <v>-0.004</v>
       </c>
       <c r="T16" t="n">
-        <v>-0</v>
+        <v>-0.386</v>
       </c>
     </row>
     <row r="17">
@@ -1568,7 +1586,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPY230628P00427000</t>
+          <t>SPY230629P00436000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1577,34 +1595,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E17" t="n">
-        <v>0.31</v>
+        <v>1.39</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.01999998</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.4184383</v>
       </c>
       <c r="J17" t="n">
-        <v>1493</v>
+        <v>86099</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4961</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0312596875</v>
+        <v>0.09790941162109376</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1617,19 +1635,19 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-0</v>
+        <v>-0.539</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="S17" t="n">
-        <v>-0</v>
+        <v>-0.006</v>
       </c>
       <c r="T17" t="n">
-        <v>-0</v>
+        <v>-0.409</v>
       </c>
     </row>
     <row r="18">
@@ -1638,7 +1656,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPY230628P00428000</t>
+          <t>SPY230629P00437000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1647,34 +1665,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="E18" t="n">
-        <v>0.43</v>
+        <v>2.01</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.03999996</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.0304549</v>
       </c>
       <c r="J18" t="n">
-        <v>2383</v>
+        <v>34886</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6099</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0312596875</v>
+        <v>0.1040128662109375</v>
       </c>
       <c r="M18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1687,19 +1705,19 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>-0</v>
+        <v>-0.696</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.148</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S18" t="n">
-        <v>-0</v>
+        <v>-0.008</v>
       </c>
       <c r="T18" t="n">
-        <v>-0</v>
+        <v>-0.371</v>
       </c>
     </row>
     <row r="19">
@@ -1708,7 +1726,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPY230628P00429000</t>
+          <t>SPY230629P00438000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1717,34 +1735,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.57</v>
+        <v>2.89</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.24000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.056603000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>3116</v>
+        <v>6318</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3644</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0312596875</v>
+        <v>0.1115811499023437</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1757,19 +1775,19 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>-0</v>
+        <v>-0.8070000000000001</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="S19" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="T19" t="n">
-        <v>-0</v>
+        <v>-0.297</v>
       </c>
     </row>
     <row r="20">
@@ -1778,7 +1796,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPY230628P00430000</t>
+          <t>SPY230629P00439000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1787,34 +1805,34 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E20" t="n">
-        <v>0.77</v>
+        <v>3.75</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.3399999</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9.970672</v>
       </c>
       <c r="J20" t="n">
-        <v>12674</v>
+        <v>1613</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3675</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01563484375</v>
+        <v>0.1355066918945313</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1827,19 +1845,19 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>-0</v>
+        <v>-0.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="S20" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="T20" t="n">
-        <v>-0</v>
+        <v>-0.307</v>
       </c>
     </row>
     <row r="21">
@@ -1848,7 +1866,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPY230628P00431000</t>
+          <t>SPY230629P00440000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1857,34 +1875,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>1.02</v>
+        <v>4.82</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>12.093022</v>
       </c>
       <c r="J21" t="n">
-        <v>5333</v>
+        <v>690</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01563484375</v>
+        <v>0.1579674047851563</v>
       </c>
       <c r="M21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -1897,19 +1915,19 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>-0</v>
+        <v>-0.877</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="S21" t="n">
-        <v>-0</v>
+        <v>-0.011</v>
       </c>
       <c r="T21" t="n">
-        <v>-0</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="22">
@@ -1918,7 +1936,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPY230628P00432000</t>
+          <t>SPY230629P00441000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1927,34 +1945,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>1.35</v>
+        <v>5.68</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5.85</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.42999983</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>8.190474</v>
       </c>
       <c r="J22" t="n">
-        <v>10318</v>
+        <v>93</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.007822421875000001</v>
+        <v>0.1794515649414062</v>
       </c>
       <c r="M22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -1967,19 +1985,19 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>-0</v>
+        <v>-0.897</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
       <c r="S22" t="n">
-        <v>-0</v>
+        <v>-0.011</v>
       </c>
       <c r="T22" t="n">
-        <v>-0</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="23">
@@ -1988,7 +2006,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SPY230628P00433000</t>
+          <t>SPY230629P00442000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1997,34 +2015,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="E23" t="n">
-        <v>1.79</v>
+        <v>6.62</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.86</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.52999973</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.702786</v>
       </c>
       <c r="J23" t="n">
-        <v>12533</v>
+        <v>134</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00196310546875</v>
+        <v>0.2014240014648437</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2037,19 +2055,19 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>-0</v>
+        <v>-0.91</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="S23" t="n">
-        <v>-0</v>
+        <v>-0.011</v>
       </c>
       <c r="T23" t="n">
-        <v>-0</v>
+        <v>-0.316</v>
       </c>
     </row>
     <row r="24">
@@ -2058,7 +2076,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPY230628P00434000</t>
+          <t>SPY230629P00443000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2067,31 +2085,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="E24" t="n">
-        <v>2.3</v>
+        <v>7.31</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>7.58</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.82</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.5900001499999999</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.779764</v>
       </c>
       <c r="J24" t="n">
-        <v>19032</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>1e-05</v>
+        <v>0.2163164306640625</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -2107,19 +2125,19 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>-0.926</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="T24" t="n">
-        <v>0.062</v>
+        <v>-0.287</v>
       </c>
     </row>
     <row r="25">
@@ -2128,7 +2146,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPY230628P00435000</t>
+          <t>SPY230629P00444000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2137,31 +2155,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="E25" t="n">
-        <v>2.94</v>
+        <v>8.67</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.9200001</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11.870969</v>
       </c>
       <c r="J25" t="n">
-        <v>12859</v>
+        <v>74</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1e-05</v>
+        <v>0.2299881689453125</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2177,19 +2195,19 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>-1</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="T25" t="n">
-        <v>0.063</v>
+        <v>-0.256</v>
       </c>
     </row>
     <row r="26">
@@ -2198,7 +2216,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPY230628P00436000</t>
+          <t>SPY230629P00445000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2207,31 +2225,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="E26" t="n">
-        <v>3.59</v>
+        <v>9.09</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.68</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.85</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.11000061</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.2249511</v>
       </c>
       <c r="J26" t="n">
-        <v>3018</v>
+        <v>37</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1e-05</v>
+        <v>0.258796474609375</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -2247,19 +2265,19 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>-1</v>
+        <v>-0.9379999999999999</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="T26" t="n">
-        <v>0.063</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="27">
@@ -2268,7 +2286,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPY230628P00437000</t>
+          <t>SPY230629P00446000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2277,16 +2295,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="E27" t="n">
-        <v>4.35</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>10.89</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2295,13 +2313,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2290</v>
+        <v>4179</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1e-05</v>
+        <v>0.2832102929687499</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2317,19 +2335,19 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T27" t="n">
-        <v>0.063</v>
+        <v>-0.323</v>
       </c>
     </row>
     <row r="28">
@@ -2338,7 +2356,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPY230628P00438000</t>
+          <t>SPY230629P00447000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2347,16 +2365,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>12.46</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>11.63</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>11.85</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2365,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1e-05</v>
+        <v>0.2956613403320312</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -2387,19 +2405,19 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>-1</v>
+        <v>-0.949</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T28" t="n">
-        <v>0.063</v>
+        <v>-0.292</v>
       </c>
     </row>
     <row r="29">
@@ -2408,7 +2426,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPY230628P00439000</t>
+          <t>SPY230629P00448000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2417,16 +2435,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="E29" t="n">
-        <v>5.7</v>
+        <v>15.88</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>12.63</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>12.85</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2435,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1e-05</v>
+        <v>0.3137275659179687</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -2457,19 +2475,19 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-1</v>
+        <v>-0.953</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T29" t="n">
-        <v>0.063</v>
+        <v>-0.289</v>
       </c>
     </row>
     <row r="30">
@@ -2478,7 +2496,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SPY230628P00440000</t>
+          <t>SPY230629P00450000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2487,31 +2505,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="E30" t="n">
-        <v>6.95</v>
+        <v>15.05</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.86</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.4000006</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.256415</v>
       </c>
       <c r="J30" t="n">
-        <v>352</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>1e-05</v>
+        <v>0.3503482934570312</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -2527,19 +2545,19 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-1</v>
+        <v>-0.959</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T30" t="n">
-        <v>0.063</v>
+        <v>-0.287</v>
       </c>
     </row>
     <row r="31">
@@ -2548,7 +2566,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPY230628P00441000</t>
+          <t>SPY230629P00470000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2557,22 +2575,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="E31" t="n">
-        <v>7.6</v>
+        <v>34.42</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>34.61</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>34.86</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-0.5600014</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-1.6009188</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
@@ -2581,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1e-05</v>
+        <v>0.6303747900390625</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2597,993 +2615,19 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>-1</v>
+        <v>-0.989</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.024</v>
+        <v>-0.013</v>
       </c>
       <c r="T31" t="n">
-        <v>0.063</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SPY230628P00442000</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>442</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M32" t="b">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>SPY230628P00443000</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>443</v>
-      </c>
-      <c r="E33" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M33" t="b">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>SPY230628P00444000</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>444</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>26</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SPY230628P00445000</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>445</v>
-      </c>
-      <c r="E35" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>19</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>SPY230628P00446000</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>446</v>
-      </c>
-      <c r="E36" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>SPY230628P00448000</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>448</v>
-      </c>
-      <c r="E37" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>21</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M37" t="b">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0.064</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SPY230628P00450000</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>450</v>
-      </c>
-      <c r="E38" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>120</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M38" t="b">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SPY230628P00452000</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>452</v>
-      </c>
-      <c r="E39" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>556</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0.065</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SPY230628P00456000</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>456</v>
-      </c>
-      <c r="E40" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M40" t="b">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SPY230628P00458000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>458</v>
-      </c>
-      <c r="E41" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SPY230628P00464000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>464</v>
-      </c>
-      <c r="E42" t="n">
-        <v>28.06</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SPY230628P00468000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>468</v>
-      </c>
-      <c r="E43" t="n">
-        <v>26.29</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M43" t="b">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.067</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SPY230628P00470000</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>470</v>
-      </c>
-      <c r="E44" t="n">
-        <v>32.43</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.068</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SPY230628P00480000</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>480</v>
-      </c>
-      <c r="E45" t="n">
-        <v>40.44</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>270</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M45" t="b">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0.06900000000000001</v>
+        <v>-0.149</v>
       </c>
     </row>
   </sheetData>

--- a/puts_output.xlsx
+++ b/puts_output.xlsx
@@ -709,7 +709,7 @@
         <v>221</v>
       </c>
       <c r="L4" t="n">
-        <v>0.414068359375</v>
+        <v>0.42188078125</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.32813171875</v>
+        <v>0.335944140625</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -828,28 +828,28 @@
         <v>420</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>-75</v>
+        <v>-50</v>
       </c>
       <c r="J6" t="n">
-        <v>1029</v>
+        <v>1067</v>
       </c>
       <c r="K6" t="n">
         <v>11785</v>
       </c>
       <c r="L6" t="n">
-        <v>0.210945390625</v>
+        <v>0.22852333984375</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S6" t="n">
         <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="7">
@@ -901,10 +901,10 @@
         <v>0.02</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H7" t="n">
         <v>-0.04</v>
@@ -913,13 +913,13 @@
         <v>-66.66667</v>
       </c>
       <c r="J7" t="n">
-        <v>1233</v>
+        <v>1776</v>
       </c>
       <c r="K7" t="n">
         <v>1599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.16211775390625</v>
+        <v>0.179695703125</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0.001</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="8">
@@ -971,10 +971,10 @@
         <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
         <v>-0.03</v>
@@ -983,13 +983,13 @@
         <v>-50</v>
       </c>
       <c r="J8" t="n">
-        <v>3213</v>
+        <v>3637</v>
       </c>
       <c r="K8" t="n">
         <v>3359</v>
       </c>
       <c r="L8" t="n">
-        <v>0.145516357421875</v>
+        <v>0.1601646484375</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="R8" t="n">
         <v>0.001</v>
@@ -1017,7 +1017,7 @@
         <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.008</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="9">
@@ -1053,13 +1053,13 @@
         <v>-66.66667</v>
       </c>
       <c r="J9" t="n">
-        <v>5373</v>
+        <v>7571</v>
       </c>
       <c r="K9" t="n">
         <v>4292</v>
       </c>
       <c r="L9" t="n">
-        <v>0.12500875</v>
+        <v>0.133797724609375</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="10">
@@ -1108,7 +1108,7 @@
         <v>429</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F10" t="n">
         <v>0.04</v>
@@ -1117,19 +1117,19 @@
         <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>-54.545456</v>
+        <v>-63.636364</v>
       </c>
       <c r="J10" t="n">
-        <v>3068</v>
+        <v>3823</v>
       </c>
       <c r="K10" t="n">
         <v>4485</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11524322265625</v>
+        <v>0.12500875</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="R10" t="n">
         <v>0.003</v>
@@ -1178,28 +1178,28 @@
         <v>430</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>-50</v>
+        <v>-64.28572</v>
       </c>
       <c r="J11" t="n">
-        <v>22011</v>
+        <v>25580</v>
       </c>
       <c r="K11" t="n">
         <v>32531</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1079190771484375</v>
+        <v>0.110360458984375</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.005</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="R11" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.029</v>
+        <v>-0.018</v>
       </c>
     </row>
     <row r="12">
@@ -1248,28 +1248,28 @@
         <v>431</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.09999999399999999</v>
+        <v>-0.13</v>
       </c>
       <c r="I12" t="n">
-        <v>-52.631577</v>
+        <v>-68.42104999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>26320</v>
+        <v>28590</v>
       </c>
       <c r="K12" t="n">
         <v>5431</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1001066552734375</v>
+        <v>0.102548037109375</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>-0.018</v>
+        <v>-0.01</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="S12" t="n">
         <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.048</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="13">
@@ -1318,28 +1318,28 @@
         <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.120000005</v>
+        <v>-0.19</v>
       </c>
       <c r="I13" t="n">
-        <v>-42.857143</v>
+        <v>-67.85714</v>
       </c>
       <c r="J13" t="n">
-        <v>39366</v>
+        <v>42621</v>
       </c>
       <c r="K13" t="n">
         <v>7048</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09620044433593751</v>
+        <v>0.09229423339843749</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -1355,19 +1355,19 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0.042</v>
+        <v>-0.017</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.041</v>
+        <v>0.02</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.095</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="14">
@@ -1388,28 +1388,28 @@
         <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.13999999</v>
+        <v>-0.29</v>
       </c>
       <c r="I14" t="n">
-        <v>-31.818178</v>
+        <v>-65.90909000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>50020</v>
+        <v>62342</v>
       </c>
       <c r="K14" t="n">
         <v>9346</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09497975341796877</v>
+        <v>0.08643491699218751</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1425,19 +1425,19 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-0.099</v>
+        <v>-0.039</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08</v>
+        <v>0.043</v>
       </c>
       <c r="R14" t="n">
-        <v>0.04</v>
+        <v>0.019</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.182</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="15">
@@ -1458,28 +1458,28 @@
         <v>434</v>
       </c>
       <c r="E15" t="n">
-        <v>0.54</v>
+        <v>0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.120000005</v>
+        <v>-0.41000003</v>
       </c>
       <c r="I15" t="n">
-        <v>-18.181818</v>
+        <v>-62.121212</v>
       </c>
       <c r="J15" t="n">
-        <v>92254</v>
+        <v>101328</v>
       </c>
       <c r="K15" t="n">
         <v>6820</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09632251342773437</v>
+        <v>0.08155215332031251</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1495,19 +1495,19 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-0.208</v>
+        <v>-0.093</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.13</v>
+        <v>0.089</v>
       </c>
       <c r="R15" t="n">
-        <v>0.065</v>
+        <v>0.038</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.302</v>
+        <v>-0.149</v>
       </c>
     </row>
     <row r="16">
@@ -1528,28 +1528,28 @@
         <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9</v>
+        <v>0.46</v>
       </c>
       <c r="F16" t="n">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.08000003999999999</v>
+        <v>-0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>-8.163270000000001</v>
+        <v>-53.061222</v>
       </c>
       <c r="J16" t="n">
-        <v>152743</v>
+        <v>188487</v>
       </c>
       <c r="K16" t="n">
         <v>6744</v>
       </c>
       <c r="L16" t="n">
-        <v>0.09571216796875001</v>
+        <v>0.07727973510742189</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1565,19 +1565,19 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-0.36</v>
+        <v>-0.204</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.171</v>
+        <v>0.161</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.386</v>
+        <v>-0.237</v>
       </c>
     </row>
     <row r="17">
@@ -1598,31 +1598,31 @@
         <v>436</v>
       </c>
       <c r="E17" t="n">
-        <v>1.39</v>
+        <v>0.75</v>
       </c>
       <c r="F17" t="n">
-        <v>1.39</v>
+        <v>0.74</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.01999998</v>
+        <v>-0.65999997</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.4184383</v>
+        <v>-46.80851</v>
       </c>
       <c r="J17" t="n">
-        <v>86099</v>
+        <v>99968</v>
       </c>
       <c r="K17" t="n">
         <v>4961</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09790941162109376</v>
+        <v>0.07239697143554688</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1635,19 +1635,19 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-0.539</v>
+        <v>-0.391</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.178</v>
+        <v>0.232</v>
       </c>
       <c r="R17" t="n">
-        <v>0.091</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.409</v>
+        <v>-0.293</v>
       </c>
     </row>
     <row r="18">
@@ -1668,28 +1668,28 @@
         <v>437</v>
       </c>
       <c r="E18" t="n">
-        <v>2.01</v>
+        <v>1.18</v>
       </c>
       <c r="F18" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="G18" t="n">
-        <v>2.07</v>
+        <v>1.18</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03999996</v>
+        <v>-0.7900001</v>
       </c>
       <c r="I18" t="n">
-        <v>2.0304549</v>
+        <v>-40.101524</v>
       </c>
       <c r="J18" t="n">
-        <v>34886</v>
+        <v>38911</v>
       </c>
       <c r="K18" t="n">
         <v>6099</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1040128662109375</v>
+        <v>0.06519489501953124</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1705,19 +1705,19 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>-0.696</v>
+        <v>-0.643</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.148</v>
+        <v>0.251</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="S18" t="n">
         <v>-0.008</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.371</v>
+        <v>-0.237</v>
       </c>
     </row>
     <row r="19">
@@ -1738,28 +1738,28 @@
         <v>438</v>
       </c>
       <c r="E19" t="n">
-        <v>2.89</v>
+        <v>1.75</v>
       </c>
       <c r="F19" t="n">
-        <v>2.76</v>
+        <v>1.72</v>
       </c>
       <c r="G19" t="n">
-        <v>2.85</v>
+        <v>1.75</v>
       </c>
       <c r="H19" t="n">
-        <v>0.24000001</v>
+        <v>-0.9000001</v>
       </c>
       <c r="I19" t="n">
-        <v>9.056603000000001</v>
+        <v>-33.96227</v>
       </c>
       <c r="J19" t="n">
-        <v>6318</v>
+        <v>7373</v>
       </c>
       <c r="K19" t="n">
         <v>3644</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1115811499023437</v>
+        <v>0.05054660400390625</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>-0.8070000000000001</v>
+        <v>-0.909</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.108</v>
+        <v>0.142</v>
       </c>
       <c r="R19" t="n">
-        <v>0.062</v>
+        <v>0.037</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.297</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="20">
@@ -1808,28 +1808,28 @@
         <v>439</v>
       </c>
       <c r="E20" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="n">
-        <v>3.67</v>
+        <v>2.4</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3399999</v>
+        <v>-0.9100001</v>
       </c>
       <c r="I20" t="n">
-        <v>9.970672</v>
+        <v>-26.686218</v>
       </c>
       <c r="J20" t="n">
-        <v>1613</v>
+        <v>1882</v>
       </c>
       <c r="K20" t="n">
         <v>3675</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1355066918945313</v>
+        <v>1e-05</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>-0.85</v>
+        <v>-1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.307</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="21">
@@ -1878,28 +1878,28 @@
         <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>4.82</v>
+        <v>3.34</v>
       </c>
       <c r="F21" t="n">
-        <v>4.65</v>
+        <v>3.03</v>
       </c>
       <c r="G21" t="n">
-        <v>4.85</v>
+        <v>3.55</v>
       </c>
       <c r="H21" t="n">
-        <v>0.52</v>
+        <v>-0.9600003</v>
       </c>
       <c r="I21" t="n">
-        <v>12.093022</v>
+        <v>-22.325588</v>
       </c>
       <c r="J21" t="n">
-        <v>690</v>
+        <v>1930</v>
       </c>
       <c r="K21" t="n">
         <v>277</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1579674047851563</v>
+        <v>1e-05</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1915,19 +1915,19 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>-0.877</v>
+        <v>-1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.31</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="22">
@@ -1948,28 +1948,28 @@
         <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>5.68</v>
+        <v>4.34</v>
       </c>
       <c r="F22" t="n">
-        <v>5.64</v>
+        <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>5.85</v>
+        <v>4.59</v>
       </c>
       <c r="H22" t="n">
-        <v>0.42999983</v>
+        <v>-0.9099998500000001</v>
       </c>
       <c r="I22" t="n">
-        <v>8.190474</v>
+        <v>-17.33333</v>
       </c>
       <c r="J22" t="n">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K22" t="n">
         <v>551</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1794515649414062</v>
+        <v>1e-05</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>-0.897</v>
+        <v>-1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.31</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="23">
@@ -2018,28 +2018,28 @@
         <v>442</v>
       </c>
       <c r="E23" t="n">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="F23" t="n">
-        <v>6.61</v>
+        <v>4.86</v>
       </c>
       <c r="G23" t="n">
-        <v>6.86</v>
+        <v>5.6</v>
       </c>
       <c r="H23" t="n">
-        <v>0.52999973</v>
+        <v>0.32999992</v>
       </c>
       <c r="I23" t="n">
-        <v>8.702786</v>
+        <v>5.418718</v>
       </c>
       <c r="J23" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K23" t="n">
         <v>11</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2014240014648437</v>
+        <v>1e-05</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -2055,19 +2055,19 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>-0.91</v>
+        <v>-1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.316</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="24">
@@ -2091,10 +2091,10 @@
         <v>7.31</v>
       </c>
       <c r="F24" t="n">
-        <v>7.58</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>7.82</v>
+        <v>6.59</v>
       </c>
       <c r="H24" t="n">
         <v>0.5900001499999999</v>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2163164306640625</v>
+        <v>1e-05</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -2125,19 +2125,19 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>-0.926</v>
+        <v>-1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.032</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.287</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="25">
@@ -2161,10 +2161,10 @@
         <v>8.67</v>
       </c>
       <c r="F25" t="n">
-        <v>8.609999999999999</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>8.779999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="H25" t="n">
         <v>0.9200001</v>
@@ -2179,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2299881689453125</v>
+        <v>1e-05</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2195,19 +2195,19 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>-0.9389999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.256</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="26">
@@ -2231,10 +2231,10 @@
         <v>9.09</v>
       </c>
       <c r="F26" t="n">
-        <v>9.68</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>9.85</v>
+        <v>8.59</v>
       </c>
       <c r="H26" t="n">
         <v>0.11000061</v>
@@ -2249,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.258796474609375</v>
+        <v>1e-05</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>-0.9379999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.3</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="27">
@@ -2301,10 +2301,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>10.63</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>10.89</v>
+        <v>9.77</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2832102929687499</v>
+        <v>0.18946123046875</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2335,19 +2335,19 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-0.985</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.018</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>0.027</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S27" t="n">
         <v>-0.012</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.323</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="28">
@@ -2371,10 +2371,10 @@
         <v>12.46</v>
       </c>
       <c r="F28" t="n">
-        <v>11.63</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>11.85</v>
+        <v>10.59</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2956613403320312</v>
+        <v>1e-05</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -2405,19 +2405,19 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>-0.949</v>
+        <v>-1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>-0.012</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.292</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="29">
@@ -2441,10 +2441,10 @@
         <v>15.88</v>
       </c>
       <c r="F29" t="n">
-        <v>12.63</v>
+        <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>12.85</v>
+        <v>11.59</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3137275659179687</v>
+        <v>1e-05</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-0.953</v>
+        <v>-1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>-0.012</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.289</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="30">
@@ -2511,16 +2511,16 @@
         <v>15.05</v>
       </c>
       <c r="F30" t="n">
-        <v>14.61</v>
+        <v>12.94</v>
       </c>
       <c r="G30" t="n">
-        <v>14.86</v>
+        <v>13.75</v>
       </c>
       <c r="H30" t="n">
         <v>1.4000006</v>
       </c>
       <c r="I30" t="n">
-        <v>10.256415</v>
+        <v>10.256414</v>
       </c>
       <c r="J30" t="n">
         <v>4</v>
@@ -2529,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3503482934570312</v>
+        <v>0.242195078125</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -2545,19 +2545,19 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-0.959</v>
+        <v>-0.992</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="S30" t="n">
         <v>-0.012</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.287</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="31">
@@ -2581,10 +2581,10 @@
         <v>34.42</v>
       </c>
       <c r="F31" t="n">
-        <v>34.61</v>
+        <v>32.78</v>
       </c>
       <c r="G31" t="n">
-        <v>34.86</v>
+        <v>33.81</v>
       </c>
       <c r="H31" t="n">
         <v>-0.5600014</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6303747900390625</v>
+        <v>0.5293015820312501</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2615,19 +2615,19 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>-0.989</v>
+        <v>-0.996</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="R31" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="S31" t="n">
         <v>-0.013</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.149</v>
+        <v>-0.003</v>
       </c>
     </row>
   </sheetData>

--- a/puts_output.xlsx
+++ b/puts_output.xlsx
@@ -585,20 +585,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>-0</v>
       </c>
-      <c r="T2" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -655,20 +651,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>-0</v>
       </c>
-      <c r="T3" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -725,20 +717,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>-0</v>
       </c>
-      <c r="T4" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -795,20 +783,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>-0</v>
       </c>
-      <c r="T5" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -865,20 +849,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>-0</v>
       </c>
-      <c r="T6" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -935,20 +915,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>-0</v>
       </c>
-      <c r="T7" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1005,20 +981,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>-0</v>
       </c>
-      <c r="T8" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1075,20 +1047,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>-0</v>
       </c>
-      <c r="T9" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1145,20 +1113,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>-0</v>
       </c>
-      <c r="T10" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1215,20 +1179,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>-0</v>
       </c>
-      <c r="T11" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1285,20 +1245,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>-0</v>
       </c>
-      <c r="T12" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1355,20 +1311,16 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
       </c>
-      <c r="T13" t="n">
-        <v>-0.002</v>
-      </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1425,20 +1377,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>-0</v>
       </c>
-      <c r="T14" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1495,20 +1443,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>-0</v>
       </c>
-      <c r="T15" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1565,20 +1509,16 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>-0</v>
       </c>
-      <c r="T16" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1635,20 +1575,16 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>-0</v>
       </c>
-      <c r="T17" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1707,18 +1643,14 @@
       <c r="P18" t="n">
         <v>-1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.063</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1777,18 +1709,14 @@
       <c r="P19" t="n">
         <v>-1</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0.063</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1847,18 +1775,14 @@
       <c r="P20" t="n">
         <v>-1</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.063</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1917,18 +1841,14 @@
       <c r="P21" t="n">
         <v>-1</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.063</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1987,18 +1907,14 @@
       <c r="P22" t="n">
         <v>-1</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.063</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2057,18 +1973,14 @@
       <c r="P23" t="n">
         <v>-1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2127,18 +2039,14 @@
       <c r="P24" t="n">
         <v>-1</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2197,18 +2105,14 @@
       <c r="P25" t="n">
         <v>-1</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2267,18 +2171,14 @@
       <c r="P26" t="n">
         <v>-1</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2337,18 +2237,14 @@
       <c r="P27" t="n">
         <v>-1</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2407,18 +2303,14 @@
       <c r="P28" t="n">
         <v>-1</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2477,18 +2369,14 @@
       <c r="P29" t="n">
         <v>-1</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.064</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2547,18 +2435,14 @@
       <c r="P30" t="n">
         <v>-1</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.065</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2617,18 +2501,14 @@
       <c r="P31" t="n">
         <v>-1</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.068</v>
-      </c>
+        <v>-0</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/puts_output.xlsx
+++ b/puts_output.xlsx
@@ -1129,7 +1129,7 @@
         <v>3324</v>
       </c>
       <c r="L10" t="n">
-        <v>1.59375203125</v>
+        <v>1.625001875</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>19752</v>
       </c>
       <c r="L17" t="n">
-        <v>1.15625421875</v>
+        <v>1.1875040625</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>3584</v>
@@ -2389,7 +2389,7 @@
         <v>4669</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9687503125</v>
+        <v>0.98437515625</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>930</v>
       </c>
       <c r="L39" t="n">
-        <v>0.85937640625</v>
+        <v>0.87500125</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -3999,7 +3999,7 @@
         <v>2793</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7187528125</v>
+        <v>0.73437765625</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>2753</v>
       </c>
       <c r="L54" t="n">
-        <v>0.6875031250000001</v>
+        <v>0.7031279687500001</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
@@ -4349,7 +4349,7 @@
         <v>2832</v>
       </c>
       <c r="L56" t="n">
-        <v>0.6718782812500002</v>
+        <v>0.6875031250000001</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
         <v>51790</v>
@@ -4559,7 +4559,7 @@
         <v>4811</v>
       </c>
       <c r="L59" t="n">
-        <v>0.64062859375</v>
+        <v>0.6562534375000001</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>38782</v>
       </c>
       <c r="L72" t="n">
-        <v>0.500005</v>
+        <v>0.51562984375</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
@@ -5743,7 +5743,7 @@
         <v>-50</v>
       </c>
       <c r="J76" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K76" t="n">
         <v>6539</v>
@@ -5953,13 +5953,13 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K79" t="n">
         <v>9308</v>
       </c>
       <c r="L79" t="n">
-        <v>0.460942890625</v>
+        <v>0.4687553125</v>
       </c>
       <c r="M79" t="b">
         <v>0</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1435</v>
+        <v>1541</v>
       </c>
       <c r="K80" t="n">
         <v>2278</v>
@@ -6099,7 +6099,7 @@
         <v>5546</v>
       </c>
       <c r="L81" t="n">
-        <v>0.4726615234375</v>
+        <v>0.476567734375</v>
       </c>
       <c r="M81" t="b">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>-50</v>
       </c>
       <c r="J82" t="n">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="K82" t="n">
         <v>82089</v>
@@ -6239,7 +6239,7 @@
         <v>5779</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4492242578125</v>
+        <v>0.45313046875</v>
       </c>
       <c r="M83" t="b">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>7796</v>
       </c>
       <c r="L84" t="n">
-        <v>0.437505625</v>
+        <v>0.4414118359375</v>
       </c>
       <c r="M84" t="b">
         <v>0</v>
@@ -6379,7 +6379,7 @@
         <v>3333</v>
       </c>
       <c r="L85" t="n">
-        <v>0.4257869921875</v>
+        <v>0.429693203125</v>
       </c>
       <c r="M85" t="b">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>7172</v>
       </c>
       <c r="L86" t="n">
-        <v>0.414068359375</v>
+        <v>0.4179745703125</v>
       </c>
       <c r="M86" t="b">
         <v>0</v>
@@ -6519,7 +6519,7 @@
         <v>45925</v>
       </c>
       <c r="L87" t="n">
-        <v>0.4023497265625</v>
+        <v>0.4062559375</v>
       </c>
       <c r="M87" t="b">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>6776</v>
       </c>
       <c r="L88" t="n">
-        <v>0.39063109375</v>
+        <v>0.3945373046875</v>
       </c>
       <c r="M88" t="b">
         <v>0</v>
@@ -6659,7 +6659,7 @@
         <v>8956</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3789124609375</v>
+        <v>0.382818671875</v>
       </c>
       <c r="M89" t="b">
         <v>0</v>
@@ -6708,7 +6708,7 @@
         <v>408</v>
       </c>
       <c r="E90" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F90" t="n">
         <v>0.01</v>
@@ -6717,19 +6717,19 @@
         <v>0.02</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="I90" t="n">
-        <v>-33.333336</v>
+        <v>-66.66667</v>
       </c>
       <c r="J90" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K90" t="n">
         <v>9118</v>
       </c>
       <c r="L90" t="n">
-        <v>0.367193828125</v>
+        <v>0.3711000390625</v>
       </c>
       <c r="M90" t="b">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>9108</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3554751953124999</v>
+        <v>0.35938140625</v>
       </c>
       <c r="M91" t="b">
         <v>0</v>
@@ -6827,7 +6827,7 @@
         <v>-0</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="92">
@@ -6863,13 +6863,13 @@
         <v>-50</v>
       </c>
       <c r="J92" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K92" t="n">
         <v>47287</v>
       </c>
       <c r="L92" t="n">
-        <v>0.3437565625</v>
+        <v>0.3476627734375</v>
       </c>
       <c r="M92" t="b">
         <v>0</v>
@@ -6897,7 +6897,7 @@
         <v>-0</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="93">
@@ -6939,7 +6939,7 @@
         <v>12501</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3320379296875</v>
+        <v>0.335944140625</v>
       </c>
       <c r="M93" t="b">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>-0</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="94">
@@ -7009,7 +7009,7 @@
         <v>11796</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3222724023437499</v>
+        <v>0.3242255078124999</v>
       </c>
       <c r="M94" t="b">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>5158</v>
       </c>
       <c r="L95" t="n">
-        <v>0.31055376953125</v>
+        <v>0.312506875</v>
       </c>
       <c r="M95" t="b">
         <v>0</v>
@@ -7128,7 +7128,7 @@
         <v>414</v>
       </c>
       <c r="E96" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F96" t="n">
         <v>0.01</v>
@@ -7137,19 +7137,19 @@
         <v>0.02</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J96" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K96" t="n">
         <v>10769</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2988351367187499</v>
+        <v>0.3007882421875</v>
       </c>
       <c r="M96" t="b">
         <v>0</v>
@@ -7219,7 +7219,7 @@
         <v>78060</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2871165039062499</v>
+        <v>0.2890696093749999</v>
       </c>
       <c r="M97" t="b">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>416</v>
       </c>
       <c r="E98" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F98" t="n">
         <v>0.01</v>
@@ -7277,19 +7277,19 @@
         <v>0.02</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="I98" t="n">
-        <v>-33.333336</v>
+        <v>-66.66667</v>
       </c>
       <c r="J98" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K98" t="n">
         <v>7206</v>
       </c>
       <c r="L98" t="n">
-        <v>0.27539787109375</v>
+        <v>0.2773509765625</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
@@ -7359,7 +7359,7 @@
         <v>14993</v>
       </c>
       <c r="L99" t="n">
-        <v>0.26367923828125</v>
+        <v>0.26563234375</v>
       </c>
       <c r="M99" t="b">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>47426</v>
       </c>
       <c r="L100" t="n">
-        <v>0.26563234375</v>
+        <v>0.26758544921875</v>
       </c>
       <c r="M100" t="b">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>419</v>
       </c>
       <c r="E101" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F101" t="n">
         <v>0.02</v>
@@ -7487,19 +7487,19 @@
         <v>0.03</v>
       </c>
       <c r="H101" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K101" t="n">
         <v>4279</v>
       </c>
       <c r="L101" t="n">
-        <v>0.25196060546875</v>
+        <v>0.2539137109375</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
@@ -7563,13 +7563,13 @@
         <v>-50</v>
       </c>
       <c r="J102" t="n">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="K102" t="n">
         <v>64061</v>
       </c>
       <c r="L102" t="n">
-        <v>0.24024197265625</v>
+        <v>0.242195078125</v>
       </c>
       <c r="M102" t="b">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         <v>30533</v>
       </c>
       <c r="L103" t="n">
-        <v>0.22852333984375</v>
+        <v>0.2304764453125</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>422</v>
       </c>
       <c r="E104" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F104" t="n">
         <v>0.02</v>
@@ -7697,19 +7697,19 @@
         <v>0.03</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>-33.333336</v>
       </c>
       <c r="J104" t="n">
-        <v>666</v>
+        <v>741</v>
       </c>
       <c r="K104" t="n">
         <v>9185</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2148516015625</v>
+        <v>0.21680470703125</v>
       </c>
       <c r="M104" t="b">
         <v>0</v>
@@ -7758,7 +7758,7 @@
         <v>423</v>
       </c>
       <c r="E105" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F105" t="n">
         <v>0.03</v>
@@ -7767,19 +7767,19 @@
         <v>0.04</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>33.333336</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="K105" t="n">
         <v>10319</v>
       </c>
       <c r="L105" t="n">
-        <v>0.210945390625</v>
+        <v>0.213875048828125</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
@@ -7807,7 +7807,7 @@
         <v>-0</v>
       </c>
       <c r="T105" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="106">
@@ -7843,13 +7843,13 @@
         <v>-40.000004</v>
       </c>
       <c r="J106" t="n">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="K106" t="n">
         <v>10274</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1992267578125</v>
+        <v>0.20117986328125</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
@@ -7913,13 +7913,13 @@
         <v>-50</v>
       </c>
       <c r="J107" t="n">
-        <v>2905</v>
+        <v>2915</v>
       </c>
       <c r="K107" t="n">
         <v>53506</v>
       </c>
       <c r="L107" t="n">
-        <v>0.18555501953125</v>
+        <v>0.187508125</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>426</v>
       </c>
       <c r="E108" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F108" t="n">
         <v>0.03</v>
@@ -7977,19 +7977,19 @@
         <v>0.04</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="I108" t="n">
-        <v>-50</v>
+        <v>-33.333336</v>
       </c>
       <c r="J108" t="n">
-        <v>35424</v>
+        <v>35443</v>
       </c>
       <c r="K108" t="n">
         <v>41654</v>
       </c>
       <c r="L108" t="n">
-        <v>0.172859833984375</v>
+        <v>0.174812939453125</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
@@ -8017,7 +8017,7 @@
         <v>-0</v>
       </c>
       <c r="T108" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="109">
@@ -8038,7 +8038,7 @@
         <v>427</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F109" t="n">
         <v>0.04</v>
@@ -8047,19 +8047,19 @@
         <v>0.05</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.030000001</v>
+        <v>-0.02</v>
       </c>
       <c r="I109" t="n">
-        <v>-42.857143</v>
+        <v>-28.571426</v>
       </c>
       <c r="J109" t="n">
-        <v>1917</v>
+        <v>1941</v>
       </c>
       <c r="K109" t="n">
         <v>11640</v>
       </c>
       <c r="L109" t="n">
-        <v>0.165047412109375</v>
+        <v>0.1679770703125</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>-0</v>
       </c>
       <c r="T109" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="110">
@@ -8108,7 +8108,7 @@
         <v>428</v>
       </c>
       <c r="E110" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F110" t="n">
         <v>0.04</v>
@@ -8117,19 +8117,19 @@
         <v>0.05</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.040000003</v>
+        <v>-0.050000004</v>
       </c>
       <c r="I110" t="n">
-        <v>-44.444447</v>
+        <v>-55.555557</v>
       </c>
       <c r="J110" t="n">
-        <v>6089</v>
+        <v>6114</v>
       </c>
       <c r="K110" t="n">
         <v>43786</v>
       </c>
       <c r="L110" t="n">
-        <v>0.151375673828125</v>
+        <v>0.15430533203125</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>-0</v>
       </c>
       <c r="T110" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="111">
@@ -8178,7 +8178,7 @@
         <v>429</v>
       </c>
       <c r="E111" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F111" t="n">
         <v>0.05</v>
@@ -8187,19 +8187,19 @@
         <v>0.06</v>
       </c>
       <c r="H111" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="I111" t="n">
-        <v>-45.454548</v>
+        <v>-54.545456</v>
       </c>
       <c r="J111" t="n">
-        <v>4590</v>
+        <v>4660</v>
       </c>
       <c r="K111" t="n">
         <v>13492</v>
       </c>
       <c r="L111" t="n">
-        <v>0.14258669921875</v>
+        <v>0.1445398046875</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
@@ -8248,28 +8248,28 @@
         <v>430</v>
       </c>
       <c r="E112" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F112" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.08</v>
-      </c>
       <c r="H112" t="n">
-        <v>-0.059999995</v>
+        <v>-0.06999999</v>
       </c>
       <c r="I112" t="n">
-        <v>-46.153843</v>
+        <v>-53.84615</v>
       </c>
       <c r="J112" t="n">
-        <v>52047</v>
+        <v>52340</v>
       </c>
       <c r="K112" t="n">
         <v>168080</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1352625537109375</v>
+        <v>0.133797724609375</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
@@ -8285,19 +8285,19 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="R112" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="S112" t="n">
         <v>-0</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.031</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="113">
@@ -8321,10 +8321,10 @@
         <v>0.1</v>
       </c>
       <c r="F113" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.1</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.11</v>
       </c>
       <c r="H113" t="n">
         <v>-0.1</v>
@@ -8333,7 +8333,7 @@
         <v>-50</v>
       </c>
       <c r="J113" t="n">
-        <v>11873</v>
+        <v>12079</v>
       </c>
       <c r="K113" t="n">
         <v>22133</v>
@@ -8355,19 +8355,19 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="R113" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="S113" t="n">
         <v>-0</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.049</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="114">
@@ -8388,28 +8388,28 @@
         <v>432</v>
       </c>
       <c r="E114" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="F114" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="G114" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.13999999</v>
+        <v>-0.14999999</v>
       </c>
       <c r="I114" t="n">
-        <v>-48.27586</v>
+        <v>-51.724136</v>
       </c>
       <c r="J114" t="n">
-        <v>21944</v>
+        <v>22322</v>
       </c>
       <c r="K114" t="n">
         <v>35263</v>
       </c>
       <c r="L114" t="n">
-        <v>0.12305564453125</v>
+        <v>0.1215908154296875</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
@@ -8425,19 +8425,19 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>-0.025</v>
+        <v>-0.022</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="R114" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="S114" t="n">
         <v>-0</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.082</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="115">
@@ -8458,28 +8458,28 @@
         <v>433</v>
       </c>
       <c r="E115" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F115" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G115" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.17999999</v>
+        <v>-0.19</v>
       </c>
       <c r="I115" t="n">
-        <v>-43.90244</v>
+        <v>-46.341465</v>
       </c>
       <c r="J115" t="n">
-        <v>18735</v>
+        <v>19886</v>
       </c>
       <c r="K115" t="n">
         <v>27239</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1198818481445312</v>
+        <v>0.1184170190429688</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
@@ -8495,19 +8495,19 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>-0.051</v>
+        <v>-0.044</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="R115" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="S115" t="n">
         <v>-0.001</v>
       </c>
       <c r="T115" t="n">
-        <v>-0.14</v>
+        <v>-0.124</v>
       </c>
     </row>
     <row r="116">
@@ -8528,28 +8528,28 @@
         <v>434</v>
       </c>
       <c r="E116" t="n">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="F116" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.24000001</v>
+        <v>-0.3</v>
       </c>
       <c r="I116" t="n">
-        <v>-38.70968</v>
+        <v>-48.3871</v>
       </c>
       <c r="J116" t="n">
-        <v>35274</v>
+        <v>36797</v>
       </c>
       <c r="K116" t="n">
         <v>23808</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1186611572265625</v>
+        <v>0.1149990844726562</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
@@ -8565,19 +8565,19 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>-0.1</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.065</v>
+        <v>0.059</v>
       </c>
       <c r="R116" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="S116" t="n">
         <v>-0.001</v>
       </c>
       <c r="T116" t="n">
-        <v>-0.232</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="117">
@@ -8598,28 +8598,28 @@
         <v>435</v>
       </c>
       <c r="E117" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="F117" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="G117" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.32</v>
+        <v>-0.37</v>
       </c>
       <c r="I117" t="n">
-        <v>-35.955055</v>
+        <v>-41.573036</v>
       </c>
       <c r="J117" t="n">
-        <v>83242</v>
+        <v>83992</v>
       </c>
       <c r="K117" t="n">
         <v>46918</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1149990844726562</v>
+        <v>0.1131680480957031</v>
       </c>
       <c r="M117" t="b">
         <v>0</v>
@@ -8635,19 +8635,19 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>-0.173</v>
+        <v>-0.158</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.097</v>
+        <v>0.093</v>
       </c>
       <c r="R117" t="n">
-        <v>0.059</v>
+        <v>0.055</v>
       </c>
       <c r="S117" t="n">
         <v>-0.002</v>
       </c>
       <c r="T117" t="n">
-        <v>-0.326</v>
+        <v>-0.303</v>
       </c>
     </row>
     <row r="118">
@@ -8668,28 +8668,28 @@
         <v>436</v>
       </c>
       <c r="E118" t="n">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F118" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="G118" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.35000002</v>
+        <v>-0.46000004</v>
       </c>
       <c r="I118" t="n">
-        <v>-28.22581</v>
+        <v>-37.09678</v>
       </c>
       <c r="J118" t="n">
-        <v>93969</v>
+        <v>95675</v>
       </c>
       <c r="K118" t="n">
         <v>18201</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1124356335449219</v>
+        <v>0.1120694262695312</v>
       </c>
       <c r="M118" t="b">
         <v>0</v>
@@ -8705,19 +8705,19 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>-0.284</v>
+        <v>-0.267</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.132</v>
+        <v>0.128</v>
       </c>
       <c r="R118" t="n">
-        <v>0.078</v>
+        <v>0.075</v>
       </c>
       <c r="S118" t="n">
         <v>-0.003</v>
       </c>
       <c r="T118" t="n">
-        <v>-0.418</v>
+        <v>-0.405</v>
       </c>
     </row>
     <row r="119">
@@ -8738,28 +8738,28 @@
         <v>437</v>
       </c>
       <c r="E119" t="n">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="F119" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="G119" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.43000007</v>
+        <v>-0.5400001</v>
       </c>
       <c r="I119" t="n">
-        <v>-25.294123</v>
+        <v>-31.76471</v>
       </c>
       <c r="J119" t="n">
-        <v>101721</v>
+        <v>105192</v>
       </c>
       <c r="K119" t="n">
         <v>16274</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1132901171875</v>
+        <v>0.1106045971679687</v>
       </c>
       <c r="M119" t="b">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>-0.428</v>
+        <v>-0.408</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.151</v>
+        <v>0.153</v>
       </c>
       <c r="R119" t="n">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
       <c r="S119" t="n">
         <v>-0.005</v>
       </c>
       <c r="T119" t="n">
-        <v>-0.482</v>
+        <v>-0.466</v>
       </c>
     </row>
     <row r="120">
@@ -8808,28 +8808,28 @@
         <v>438</v>
       </c>
       <c r="E120" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="F120" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="G120" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.42999995</v>
+        <v>-0.57000005</v>
       </c>
       <c r="I120" t="n">
-        <v>-19.111109</v>
+        <v>-25.333336</v>
       </c>
       <c r="J120" t="n">
-        <v>53178</v>
+        <v>55508</v>
       </c>
       <c r="K120" t="n">
         <v>12283</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1159756372070312</v>
+        <v>0.11524322265625</v>
       </c>
       <c r="M120" t="b">
         <v>1</v>
@@ -8845,10 +8845,10 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>-0.579</v>
+        <v>-0.5620000000000001</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="R120" t="n">
         <v>0.09</v>
@@ -8857,7 +8857,7 @@
         <v>-0.007</v>
       </c>
       <c r="T120" t="n">
-        <v>-0.483</v>
+        <v>-0.485</v>
       </c>
     </row>
     <row r="121">
@@ -8878,28 +8878,28 @@
         <v>439</v>
       </c>
       <c r="E121" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="F121" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="G121" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.37000012</v>
+        <v>-0.5</v>
       </c>
       <c r="I121" t="n">
-        <v>-12.8027725</v>
+        <v>-17.301039</v>
       </c>
       <c r="J121" t="n">
-        <v>17101</v>
+        <v>17897</v>
       </c>
       <c r="K121" t="n">
         <v>8645</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1252528881835938</v>
+        <v>0.1215908154296875</v>
       </c>
       <c r="M121" t="b">
         <v>1</v>
@@ -8915,19 +8915,19 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>-0.703</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.121</v>
+        <v>0.126</v>
       </c>
       <c r="R121" t="n">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="S121" t="n">
         <v>-0.008</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.452</v>
+        <v>-0.445</v>
       </c>
     </row>
     <row r="122">
@@ -8948,28 +8948,28 @@
         <v>440</v>
       </c>
       <c r="E122" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="F122" t="n">
-        <v>3.17</v>
+        <v>3.12</v>
       </c>
       <c r="G122" t="n">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.3800001</v>
+        <v>-0.48000002</v>
       </c>
       <c r="I122" t="n">
-        <v>-10.468322</v>
+        <v>-13.22314</v>
       </c>
       <c r="J122" t="n">
-        <v>5084</v>
+        <v>5201</v>
       </c>
       <c r="K122" t="n">
         <v>7537</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1306239282226562</v>
+        <v>0.12500875</v>
       </c>
       <c r="M122" t="b">
         <v>1</v>
@@ -8985,10 +8985,10 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>-0.8</v>
+        <v>-0.799</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.094</v>
+        <v>0.098</v>
       </c>
       <c r="R122" t="n">
         <v>0.064</v>
@@ -8997,7 +8997,7 @@
         <v>-0.01</v>
       </c>
       <c r="T122" t="n">
-        <v>-0.368</v>
+        <v>-0.351</v>
       </c>
     </row>
     <row r="123">
@@ -9018,28 +9018,28 @@
         <v>441</v>
       </c>
       <c r="E123" t="n">
-        <v>3.88</v>
+        <v>3.97</v>
       </c>
       <c r="F123" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="G123" t="n">
-        <v>4.22</v>
+        <v>4.01</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.50999975</v>
+        <v>-0.41999984</v>
       </c>
       <c r="I123" t="n">
-        <v>-11.617308</v>
+        <v>-9.567194000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>1606</v>
+        <v>2004</v>
       </c>
       <c r="K123" t="n">
         <v>1476</v>
       </c>
       <c r="L123" t="n">
-        <v>0.143563251953125</v>
+        <v>0.1350184155273438</v>
       </c>
       <c r="M123" t="b">
         <v>1</v>
@@ -9055,19 +9055,19 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>-0.857</v>
+        <v>-0.864</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="R123" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="S123" t="n">
         <v>-0.01</v>
       </c>
       <c r="T123" t="n">
-        <v>-0.316</v>
+        <v>-0.283</v>
       </c>
     </row>
     <row r="124">
@@ -9091,10 +9091,10 @@
         <v>4.97</v>
       </c>
       <c r="F124" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="G124" t="n">
         <v>5.01</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5.21</v>
       </c>
       <c r="H124" t="n">
         <v>-0.37000036</v>
@@ -9109,7 +9109,7 @@
         <v>175</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1643149975585937</v>
+        <v>0.1567467138671875</v>
       </c>
       <c r="M124" t="b">
         <v>1</v>
@@ -9125,19 +9125,19 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>-0.884</v>
+        <v>-0.889</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="R124" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="S124" t="n">
         <v>-0.011</v>
       </c>
       <c r="T124" t="n">
-        <v>-0.311</v>
+        <v>-0.284</v>
       </c>
     </row>
     <row r="125">
@@ -9161,10 +9161,10 @@
         <v>6.45</v>
       </c>
       <c r="F125" t="n">
-        <v>5.95</v>
+        <v>5.68</v>
       </c>
       <c r="G125" t="n">
-        <v>6.19</v>
+        <v>5.91</v>
       </c>
       <c r="H125" t="n">
         <v>-1.1500001</v>
@@ -9179,7 +9179,7 @@
         <v>25</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1831136376953125</v>
+        <v>0.1652915502929688</v>
       </c>
       <c r="M125" t="b">
         <v>1</v>
@@ -9195,19 +9195,19 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>-0.904</v>
+        <v>-0.922</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="R125" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="S125" t="n">
         <v>-0.011</v>
       </c>
       <c r="T125" t="n">
-        <v>-0.298</v>
+        <v>-0.218</v>
       </c>
     </row>
     <row r="126">
@@ -9231,10 +9231,10 @@
         <v>6.87</v>
       </c>
       <c r="F126" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="G126" t="n">
         <v>6.96</v>
-      </c>
-      <c r="G126" t="n">
-        <v>7.2</v>
       </c>
       <c r="H126" t="n">
         <v>-1.4099998</v>
@@ -9249,7 +9249,7 @@
         <v>48</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2043536596679687</v>
+        <v>0.1914143359375</v>
       </c>
       <c r="M126" t="b">
         <v>1</v>
@@ -9265,19 +9265,19 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>-0.916</v>
+        <v>-0.926</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="R126" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="S126" t="n">
         <v>-0.011</v>
       </c>
       <c r="T126" t="n">
-        <v>-0.301</v>
+        <v>-0.247</v>
       </c>
     </row>
     <row r="127">
@@ -9301,10 +9301,10 @@
         <v>8.279999999999999</v>
       </c>
       <c r="F127" t="n">
-        <v>7.95</v>
+        <v>7.69</v>
       </c>
       <c r="G127" t="n">
-        <v>8.130000000000001</v>
+        <v>7.93</v>
       </c>
       <c r="H127" t="n">
         <v>-1.7200003</v>
@@ -9319,7 +9319,7 @@
         <v>107</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2146074633789062</v>
+        <v>0.2065509033203125</v>
       </c>
       <c r="M127" t="b">
         <v>1</v>
@@ -9335,19 +9335,19 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>-0.9350000000000001</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="R127" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="S127" t="n">
         <v>-0.011</v>
       </c>
       <c r="T127" t="n">
-        <v>-0.251</v>
+        <v>-0.224</v>
       </c>
     </row>
     <row r="128">
@@ -9371,10 +9371,10 @@
         <v>8.789999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>8.81</v>
+        <v>8.74</v>
       </c>
       <c r="G128" t="n">
-        <v>9.09</v>
+        <v>9</v>
       </c>
       <c r="H128" t="n">
         <v>-1.7200003</v>
@@ -9389,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2273026489257812</v>
+        <v>0.2351150708007813</v>
       </c>
       <c r="M128" t="b">
         <v>1</v>
@@ -9405,19 +9405,19 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>-0.947</v>
+        <v>-0.9379999999999999</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="R128" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="S128" t="n">
-        <v>-0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="T128" t="n">
-        <v>-0.219</v>
+        <v>-0.267</v>
       </c>
     </row>
     <row r="129">
@@ -9441,10 +9441,10 @@
         <v>10</v>
       </c>
       <c r="F129" t="n">
-        <v>9.9</v>
+        <v>9.77</v>
       </c>
       <c r="G129" t="n">
-        <v>10.14</v>
+        <v>10.01</v>
       </c>
       <c r="H129" t="n">
         <v>-1.4499998</v>
@@ -9459,7 +9459,7 @@
         <v>20</v>
       </c>
       <c r="L129" t="n">
-        <v>0.252937158203125</v>
+        <v>0.2551344018554688</v>
       </c>
       <c r="M129" t="b">
         <v>1</v>
@@ -9475,19 +9475,19 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>-0.948</v>
+        <v>-0.944</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="R129" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="S129" t="n">
         <v>-0.012</v>
       </c>
       <c r="T129" t="n">
-        <v>-0.249</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="130">
@@ -9511,10 +9511,10 @@
         <v>10.82</v>
       </c>
       <c r="F130" t="n">
-        <v>10.84</v>
+        <v>10.71</v>
       </c>
       <c r="G130" t="n">
-        <v>11.09</v>
+        <v>10.95</v>
       </c>
       <c r="H130" t="n">
         <v>-1.9900007</v>
@@ -9529,7 +9529,7 @@
         <v>5</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2629468237304688</v>
+        <v>0.2641675146484375</v>
       </c>
       <c r="M130" t="b">
         <v>1</v>
@@ -9545,19 +9545,19 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>-0.958</v>
+        <v>-0.955</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="R130" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="S130" t="n">
         <v>-0.012</v>
       </c>
       <c r="T130" t="n">
-        <v>-0.211</v>
+        <v>-0.225</v>
       </c>
     </row>
     <row r="131">
@@ -9581,10 +9581,10 @@
         <v>13.47</v>
       </c>
       <c r="F131" t="n">
-        <v>11.98</v>
+        <v>11.71</v>
       </c>
       <c r="G131" t="n">
-        <v>12.23</v>
+        <v>11.95</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.30274134765625</v>
+        <v>0.2817454638671875</v>
       </c>
       <c r="M131" t="b">
         <v>1</v>
@@ -9615,19 +9615,19 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>-0.949</v>
+        <v>-0.959</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="R131" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="S131" t="n">
         <v>-0.012</v>
       </c>
       <c r="T131" t="n">
-        <v>-0.302</v>
+        <v>-0.222</v>
       </c>
     </row>
     <row r="132">
@@ -9651,10 +9651,10 @@
         <v>13.28</v>
       </c>
       <c r="F132" t="n">
-        <v>12.84</v>
+        <v>12.71</v>
       </c>
       <c r="G132" t="n">
-        <v>13.08</v>
+        <v>13.02</v>
       </c>
       <c r="H132" t="n">
         <v>-1.1700001</v>
@@ -9669,7 +9669,7 @@
         <v>24</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2956613403320312</v>
+        <v>0.31055376953125</v>
       </c>
       <c r="M132" t="b">
         <v>1</v>
@@ -9685,19 +9685,19 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>-0.965</v>
+        <v>-0.957</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="R132" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="S132" t="n">
         <v>-0.012</v>
       </c>
       <c r="T132" t="n">
-        <v>-0.196</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="133">
@@ -9721,10 +9721,10 @@
         <v>13.24</v>
       </c>
       <c r="F133" t="n">
-        <v>13.89</v>
+        <v>13.71</v>
       </c>
       <c r="G133" t="n">
-        <v>14.13</v>
+        <v>13.97</v>
       </c>
       <c r="H133" t="n">
         <v>-1.3299999</v>
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.321295849609375</v>
+        <v>0.3193427441406249</v>
       </c>
       <c r="M133" t="b">
         <v>1</v>
@@ -9767,7 +9767,7 @@
         <v>-0.012</v>
       </c>
       <c r="T133" t="n">
-        <v>-0.226</v>
+        <v>-0.227</v>
       </c>
     </row>
     <row r="134">
@@ -9791,10 +9791,10 @@
         <v>15.6</v>
       </c>
       <c r="F134" t="n">
-        <v>14.89</v>
+        <v>14.7</v>
       </c>
       <c r="G134" t="n">
-        <v>15.12</v>
+        <v>14.96</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3364324169921875</v>
+        <v>0.3344793115234375</v>
       </c>
       <c r="M134" t="b">
         <v>1</v>
@@ -9825,10 +9825,10 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>-0.968</v>
+        <v>-0.967</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="R134" t="n">
         <v>0.017</v>
@@ -9837,7 +9837,7 @@
         <v>-0.012</v>
       </c>
       <c r="T134" t="n">
-        <v>-0.216</v>
+        <v>-0.217</v>
       </c>
     </row>
     <row r="135">
@@ -9861,10 +9861,10 @@
         <v>19.87</v>
       </c>
       <c r="F135" t="n">
-        <v>15.92</v>
+        <v>15.67</v>
       </c>
       <c r="G135" t="n">
-        <v>16.18</v>
+        <v>15.93</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3637758935546875</v>
+        <v>0.3452213916015625</v>
       </c>
       <c r="M135" t="b">
         <v>1</v>
@@ -9895,19 +9895,19 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>-0.966</v>
+        <v>-0.972</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="R135" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="S135" t="n">
         <v>-0.012</v>
       </c>
       <c r="T135" t="n">
-        <v>-0.252</v>
+        <v>-0.192</v>
       </c>
     </row>
     <row r="136">
@@ -9931,10 +9931,10 @@
         <v>18.5</v>
       </c>
       <c r="F136" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="G136" t="n">
         <v>16.92</v>
-      </c>
-      <c r="G136" t="n">
-        <v>17.18</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0.3803772900390625</v>
+        <v>0.35938140625</v>
       </c>
       <c r="M136" t="b">
         <v>1</v>
@@ -9965,19 +9965,19 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>-0.968</v>
+        <v>-0.974</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="R136" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="S136" t="n">
         <v>-0.012</v>
       </c>
       <c r="T136" t="n">
-        <v>-0.248</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="137">
@@ -10001,10 +10001,10 @@
         <v>19.48</v>
       </c>
       <c r="F137" t="n">
-        <v>17.87</v>
+        <v>17.7</v>
       </c>
       <c r="G137" t="n">
-        <v>18.13</v>
+        <v>17.98</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -10035,19 +10035,19 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>-0.973</v>
+        <v>-0.972</v>
       </c>
       <c r="Q137" t="n">
         <v>0.007</v>
       </c>
       <c r="R137" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="S137" t="n">
         <v>-0.012</v>
       </c>
       <c r="T137" t="n">
-        <v>-0.211</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="138">
@@ -10071,10 +10071,10 @@
         <v>21.3</v>
       </c>
       <c r="F138" t="n">
-        <v>18.95</v>
+        <v>18.74</v>
       </c>
       <c r="G138" t="n">
-        <v>19.2</v>
+        <v>18.98</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4169980175781249</v>
+        <v>0.403326279296875</v>
       </c>
       <c r="M138" t="b">
         <v>1</v>
@@ -10105,19 +10105,19 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>-0.971</v>
+        <v>-0.974</v>
       </c>
       <c r="Q138" t="n">
         <v>0.007</v>
       </c>
       <c r="R138" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="S138" t="n">
         <v>-0.012</v>
       </c>
       <c r="T138" t="n">
-        <v>-0.255</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="139">
@@ -10141,10 +10141,10 @@
         <v>18.5</v>
       </c>
       <c r="F139" t="n">
-        <v>20.83</v>
+        <v>20.74</v>
       </c>
       <c r="G139" t="n">
-        <v>21.08</v>
+        <v>20.97</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.42383388671875</v>
+        <v>0.4331111376953125</v>
       </c>
       <c r="M139" t="b">
         <v>1</v>
@@ -10175,19 +10175,19 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>-0.98</v>
+        <v>-0.977</v>
       </c>
       <c r="Q139" t="n">
         <v>0.005</v>
       </c>
       <c r="R139" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="S139" t="n">
         <v>-0.012</v>
       </c>
       <c r="T139" t="n">
-        <v>-0.169</v>
+        <v>-0.203</v>
       </c>
     </row>
     <row r="140">
@@ -10211,10 +10211,10 @@
         <v>24.5</v>
       </c>
       <c r="F140" t="n">
-        <v>22.96</v>
+        <v>22.7</v>
       </c>
       <c r="G140" t="n">
-        <v>23.19</v>
+        <v>22.95</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4782767016601562</v>
+        <v>0.4594780615234375</v>
       </c>
       <c r="M140" t="b">
         <v>1</v>
@@ -10245,19 +10245,19 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>-0.977</v>
+        <v>-0.981</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="R140" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="S140" t="n">
         <v>-0.012</v>
       </c>
       <c r="T140" t="n">
-        <v>-0.234</v>
+        <v>-0.184</v>
       </c>
     </row>
     <row r="141">
@@ -10281,10 +10281,10 @@
         <v>26.6</v>
       </c>
       <c r="F141" t="n">
-        <v>24.87</v>
+        <v>24.7</v>
       </c>
       <c r="G141" t="n">
-        <v>25.14</v>
+        <v>24.95</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10299,7 +10299,7 @@
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>0.49805189453125</v>
+        <v>0.4897511962890626</v>
       </c>
       <c r="M141" t="b">
         <v>1</v>
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>-0.981</v>
+        <v>-0.982</v>
       </c>
       <c r="Q141" t="n">
         <v>0.004</v>
@@ -10327,7 +10327,7 @@
         <v>-0.012</v>
       </c>
       <c r="T141" t="n">
-        <v>-0.196</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="142">
@@ -10351,10 +10351,10 @@
         <v>28.67</v>
       </c>
       <c r="F142" t="n">
-        <v>26.88</v>
+        <v>26.76</v>
       </c>
       <c r="G142" t="n">
-        <v>27.14</v>
+        <v>27</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>5</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5278367529296876</v>
+        <v>0.5014698291015626</v>
       </c>
       <c r="M142" t="b">
         <v>1</v>
@@ -10385,19 +10385,19 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>-0.983</v>
+        <v>-0.987</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="R142" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="S142" t="n">
         <v>-0.013</v>
       </c>
       <c r="T142" t="n">
-        <v>-0.19</v>
+        <v>-0.129</v>
       </c>
     </row>
     <row r="143">
@@ -10421,10 +10421,10 @@
         <v>30.2</v>
       </c>
       <c r="F143" t="n">
-        <v>27.92</v>
+        <v>27.7</v>
       </c>
       <c r="G143" t="n">
-        <v>28.18</v>
+        <v>27.95</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>3</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5195360546875</v>
+        <v>0.5004932763671875</v>
       </c>
       <c r="M143" t="b">
         <v>1</v>
@@ -10455,19 +10455,19 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>-0.987</v>
+        <v>-0.989</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="R143" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="S143" t="n">
         <v>-0.013</v>
       </c>
       <c r="T143" t="n">
-        <v>-0.131</v>
+        <v>-0.094</v>
       </c>
     </row>
     <row r="144">
@@ -10491,10 +10491,10 @@
         <v>28.63</v>
       </c>
       <c r="F144" t="n">
-        <v>28.88</v>
+        <v>28.76</v>
       </c>
       <c r="G144" t="n">
-        <v>29.14</v>
+        <v>29</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5229539892578124</v>
+        <v>0.5302781347656251</v>
       </c>
       <c r="M144" t="b">
         <v>1</v>
@@ -10523,10 +10523,10 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>-0.989</v>
+        <v>-0.988</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="R144" t="n">
         <v>0.007</v>
@@ -10535,7 +10535,7 @@
         <v>-0.013</v>
       </c>
       <c r="T144" t="n">
-        <v>-0.105</v>
+        <v>-0.125</v>
       </c>
     </row>
     <row r="145">
@@ -10559,10 +10559,10 @@
         <v>32.64</v>
       </c>
       <c r="F145" t="n">
-        <v>30.87</v>
+        <v>30.76</v>
       </c>
       <c r="G145" t="n">
-        <v>31.09</v>
+        <v>31</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5415084912109377</v>
+        <v>0.5581098876953126</v>
       </c>
       <c r="M145" t="b">
         <v>1</v>
@@ -10593,19 +10593,19 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>-0.991</v>
+        <v>-0.989</v>
       </c>
       <c r="Q145" t="n">
         <v>0.002</v>
       </c>
       <c r="R145" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="S145" t="n">
         <v>-0.013</v>
       </c>
       <c r="T145" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="146">
@@ -10629,10 +10629,10 @@
         <v>32.46</v>
       </c>
       <c r="F146" t="n">
-        <v>32.83</v>
+        <v>32.7</v>
       </c>
       <c r="G146" t="n">
-        <v>33.09</v>
+        <v>32.96</v>
       </c>
       <c r="H146" t="n">
         <v>-3.8199997</v>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5620160986328125</v>
+        <v>0.5708050732421875</v>
       </c>
       <c r="M146" t="b">
         <v>1</v>
@@ -10663,7 +10663,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>-0.992</v>
+        <v>-0.991</v>
       </c>
       <c r="Q146" t="n">
         <v>0.002</v>
@@ -10675,7 +10675,7 @@
         <v>-0.013</v>
       </c>
       <c r="T146" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="147">
@@ -10699,10 +10699,10 @@
         <v>34.61</v>
       </c>
       <c r="F147" t="n">
-        <v>34.83</v>
+        <v>34.7</v>
       </c>
       <c r="G147" t="n">
-        <v>35.09</v>
+        <v>34.96</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5883830224609375</v>
+        <v>0.5976602734375001</v>
       </c>
       <c r="M147" t="b">
         <v>1</v>
@@ -10731,10 +10731,10 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>-0.993</v>
+        <v>-0.992</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="R147" t="n">
         <v>0.005</v>
@@ -10743,7 +10743,7 @@
         <v>-0.013</v>
       </c>
       <c r="T147" t="n">
-        <v>-0.066</v>
+        <v>-0.08400000000000001</v>
       </c>
     </row>
     <row r="148">
@@ -10767,10 +10767,10 @@
         <v>37.17</v>
       </c>
       <c r="F148" t="n">
-        <v>36.83</v>
+        <v>36.69</v>
       </c>
       <c r="G148" t="n">
-        <v>37.08</v>
+        <v>36.95</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0.6127968408203126</v>
+        <v>0.6210975390625001</v>
       </c>
       <c r="M148" t="b">
         <v>1</v>
@@ -10801,19 +10801,19 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>-0.994</v>
+        <v>-0.993</v>
       </c>
       <c r="Q148" t="n">
         <v>0.001</v>
       </c>
       <c r="R148" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="S148" t="n">
         <v>-0.013</v>
       </c>
       <c r="T148" t="n">
-        <v>-0.06</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="149">
@@ -10837,10 +10837,10 @@
         <v>38.15</v>
       </c>
       <c r="F149" t="n">
-        <v>37.94</v>
+        <v>37.69</v>
       </c>
       <c r="G149" t="n">
-        <v>38.14</v>
+        <v>37.98</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>5</v>
       </c>
       <c r="L149" t="n">
-        <v>0.6547886083984377</v>
+        <v>0.6391637646484375</v>
       </c>
       <c r="M149" t="b">
         <v>1</v>
@@ -10871,10 +10871,10 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>-0.991</v>
+        <v>-0.993</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="R149" t="n">
         <v>0.005</v>
@@ -10883,7 +10883,7 @@
         <v>-0.013</v>
       </c>
       <c r="T149" t="n">
-        <v>-0.106</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="150">
@@ -10907,10 +10907,10 @@
         <v>41.02</v>
       </c>
       <c r="F150" t="n">
-        <v>40.86</v>
+        <v>40.69</v>
       </c>
       <c r="G150" t="n">
-        <v>41.12</v>
+        <v>40.97</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.6772493212890626</v>
+        <v>0.6767610449218751</v>
       </c>
       <c r="M150" t="b">
         <v>1</v>
@@ -10951,7 +10951,7 @@
         <v>-0.013</v>
       </c>
       <c r="T150" t="n">
-        <v>-0.074</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="151">
@@ -10975,10 +10975,10 @@
         <v>43.64</v>
       </c>
       <c r="F151" t="n">
-        <v>42.89</v>
+        <v>42.72</v>
       </c>
       <c r="G151" t="n">
-        <v>43.04</v>
+        <v>42.93</v>
       </c>
       <c r="H151" t="n">
         <v>1.0900002</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.69336244140625</v>
+        <v>0.700198310546875</v>
       </c>
       <c r="M151" t="b">
         <v>1</v>
@@ -11021,7 +11021,7 @@
         <v>-0.013</v>
       </c>
       <c r="T151" t="n">
-        <v>-0.058</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -11045,10 +11045,10 @@
         <v>49.85</v>
       </c>
       <c r="F152" t="n">
-        <v>47.94</v>
+        <v>47.75</v>
       </c>
       <c r="G152" t="n">
-        <v>48.13</v>
+        <v>47.99</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.7822287402343751</v>
+        <v>0.780275634765625</v>
       </c>
       <c r="M152" t="b">
         <v>1</v>
@@ -11115,10 +11115,10 @@
         <v>48.06</v>
       </c>
       <c r="F153" t="n">
-        <v>52.77</v>
+        <v>52.71</v>
       </c>
       <c r="G153" t="n">
-        <v>53.06</v>
+        <v>52.95</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0.7939473730468749</v>
+        <v>0.8266618896484373</v>
       </c>
       <c r="M153" t="b">
         <v>1</v>
@@ -11149,19 +11149,19 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>-0.997</v>
+        <v>-0.995</v>
       </c>
       <c r="Q153" t="n">
         <v>0.001</v>
       </c>
       <c r="R153" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S153" t="n">
         <v>-0.013</v>
       </c>
       <c r="T153" t="n">
-        <v>-0.022</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="154">
@@ -11185,10 +11185,10 @@
         <v>61.26</v>
       </c>
       <c r="F154" t="n">
-        <v>57.77</v>
+        <v>57.63</v>
       </c>
       <c r="G154" t="n">
-        <v>58.11</v>
+        <v>57.87</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8642591699218749</v>
+        <v>0.84961087890625</v>
       </c>
       <c r="M154" t="b">
         <v>1</v>
@@ -11222,7 +11222,7 @@
         <v>-0.997</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R154" t="n">
         <v>0.002</v>
@@ -11231,7 +11231,7 @@
         <v>-0.014</v>
       </c>
       <c r="T154" t="n">
-        <v>-0.03</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="155">
@@ -11255,10 +11255,10 @@
         <v>63.75</v>
       </c>
       <c r="F155" t="n">
-        <v>62.85</v>
+        <v>62.72</v>
       </c>
       <c r="G155" t="n">
-        <v>63.11</v>
+        <v>62.93</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0.9414068359375</v>
+        <v>0.9433599414062499</v>
       </c>
       <c r="M155" t="b">
         <v>1</v>
@@ -11295,13 +11295,13 @@
         <v>0.001</v>
       </c>
       <c r="R155" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S155" t="n">
         <v>-0.014</v>
       </c>
       <c r="T155" t="n">
-        <v>-0.045</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="156">
@@ -11325,10 +11325,10 @@
         <v>65.53</v>
       </c>
       <c r="F156" t="n">
-        <v>67.84999999999999</v>
+        <v>67.75</v>
       </c>
       <c r="G156" t="n">
-        <v>68.09999999999999</v>
+        <v>67.98</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>0.9960937890625</v>
+        <v>1.018559594726562</v>
       </c>
       <c r="M156" t="b">
         <v>1</v>
@@ -11359,19 +11359,19 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>-0.997</v>
+        <v>-0.996</v>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
       </c>
       <c r="R156" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S156" t="n">
         <v>-0.014</v>
       </c>
       <c r="T156" t="n">
-        <v>-0.038</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="157">
@@ -11395,10 +11395,10 @@
         <v>74.17</v>
       </c>
       <c r="F157" t="n">
-        <v>72.92</v>
+        <v>72.67</v>
       </c>
       <c r="G157" t="n">
-        <v>73.16</v>
+        <v>72.91</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11413,7 +11413,7 @@
         <v>2</v>
       </c>
       <c r="L157" t="n">
-        <v>1.083012397460938</v>
+        <v>1.0390673046875</v>
       </c>
       <c r="M157" t="b">
         <v>1</v>
@@ -11429,19 +11429,19 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>-0.996</v>
+        <v>-0.997</v>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
       </c>
       <c r="R157" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="S157" t="n">
         <v>-0.014</v>
       </c>
       <c r="T157" t="n">
-        <v>-0.064</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="158">
@@ -11465,10 +11465,10 @@
         <v>79.18000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>77.78</v>
+        <v>77.7</v>
       </c>
       <c r="G158" t="n">
-        <v>78.04000000000001</v>
+        <v>77.94</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>1.0703171484375</v>
+        <v>1.110356010742187</v>
       </c>
       <c r="M158" t="b">
         <v>1</v>
@@ -11499,19 +11499,19 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>-0.998</v>
+        <v>-0.997</v>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="S158" t="n">
         <v>-0.014</v>
       </c>
       <c r="T158" t="n">
-        <v>-0.002</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="159">
@@ -11535,10 +11535,10 @@
         <v>80.27</v>
       </c>
       <c r="F159" t="n">
-        <v>82.77</v>
+        <v>82.64</v>
       </c>
       <c r="G159" t="n">
-        <v>83.06</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>1.126957490234375</v>
+        <v>1.13672306640625</v>
       </c>
       <c r="M159" t="b">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>-0.014</v>
       </c>
       <c r="T159" t="n">
-        <v>-0.002</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="160">
@@ -11605,10 +11605,10 @@
         <v>85.53</v>
       </c>
       <c r="F160" t="n">
-        <v>87.84</v>
+        <v>87.67</v>
       </c>
       <c r="G160" t="n">
-        <v>88.09999999999999</v>
+        <v>87.92</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>1.2109414453125</v>
+        <v>1.203128984375</v>
       </c>
       <c r="M160" t="b">
         <v>1</v>
@@ -11651,7 +11651,7 @@
         <v>-0.014</v>
       </c>
       <c r="T160" t="n">
-        <v>-0.021</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="161">
@@ -11675,10 +11675,10 @@
         <v>90.53</v>
       </c>
       <c r="F161" t="n">
-        <v>92.84</v>
+        <v>92.73</v>
       </c>
       <c r="G161" t="n">
-        <v>93.06999999999999</v>
+        <v>92.97</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>1.254886538085938</v>
+        <v>1.286136381835937</v>
       </c>
       <c r="M161" t="b">
         <v>1</v>
@@ -11715,13 +11715,13 @@
         <v>0</v>
       </c>
       <c r="R161" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="S161" t="n">
         <v>-0.014</v>
       </c>
       <c r="T161" t="n">
-        <v>-0.012</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="162">
@@ -11745,10 +11745,10 @@
         <v>95.27</v>
       </c>
       <c r="F162" t="n">
-        <v>97.94</v>
+        <v>97.64</v>
       </c>
       <c r="G162" t="n">
-        <v>98.18000000000001</v>
+        <v>97.89</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>1.364260991210938</v>
+        <v>1.288089497070312</v>
       </c>
       <c r="M162" t="b">
         <v>1</v>
@@ -11779,19 +11779,19 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>-0.997</v>
+        <v>-0.998</v>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S162" t="n">
         <v>-0.015</v>
       </c>
       <c r="T162" t="n">
-        <v>-0.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -11815,10 +11815,10 @@
         <v>100.21</v>
       </c>
       <c r="F163" t="n">
-        <v>102.87</v>
+        <v>102.67</v>
       </c>
       <c r="G163" t="n">
-        <v>103.02</v>
+        <v>102.93</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>1.349612626953125</v>
+        <v>1.360354760742188</v>
       </c>
       <c r="M163" t="b">
         <v>1</v>
@@ -11861,7 +11861,7 @@
         <v>-0.015</v>
       </c>
       <c r="T163" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="164">
@@ -11885,10 +11885,10 @@
         <v>105.17</v>
       </c>
       <c r="F164" t="n">
-        <v>107.88</v>
+        <v>107.62</v>
       </c>
       <c r="G164" t="n">
-        <v>108.15</v>
+        <v>107.89</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>1.442385600585938</v>
+        <v>1.379885913085937</v>
       </c>
       <c r="M164" t="b">
         <v>1</v>
@@ -11919,7 +11919,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>-0.998</v>
+        <v>-0.999</v>
       </c>
       <c r="Q164" t="n">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>-0.015</v>
       </c>
       <c r="T164" t="n">
-        <v>-0.028</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/puts_output.xlsx
+++ b/puts_output.xlsx
@@ -569,7 +569,7 @@
         <v>12266</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1250046875</v>
+        <v>2.18750453125</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>2110</v>
       </c>
       <c r="L31" t="n">
-        <v>0.937500625</v>
+        <v>0.9531254687499999</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>13763</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8281267187499999</v>
+        <v>0.8437515624999999</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
@@ -4413,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K57" t="n">
         <v>51790</v>
       </c>
       <c r="L57" t="n">
-        <v>0.6562534375000001</v>
+        <v>0.6718782812500002</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
@@ -4629,7 +4629,7 @@
         <v>2803</v>
       </c>
       <c r="L60" t="n">
-        <v>0.6250037500000001</v>
+        <v>0.64062859375</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
@@ -4769,7 +4769,7 @@
         <v>25899</v>
       </c>
       <c r="L62" t="n">
-        <v>0.6093789062500001</v>
+        <v>0.6250037500000001</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>2483</v>
       </c>
       <c r="L63" t="n">
-        <v>0.5937540625000001</v>
+        <v>0.6093789062500001</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
@@ -5049,7 +5049,7 @@
         <v>3035</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5625043750000001</v>
+        <v>0.57812921875</v>
       </c>
       <c r="M66" t="b">
         <v>0</v>
@@ -5259,7 +5259,7 @@
         <v>2800</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5312546875</v>
+        <v>0.5468795312500001</v>
       </c>
       <c r="M69" t="b">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>5851</v>
       </c>
       <c r="L74" t="n">
-        <v>0.51562984375</v>
+        <v>0.523442265625</v>
       </c>
       <c r="M74" t="b">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="K79" t="n">
         <v>9308</v>
@@ -6023,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1541</v>
+        <v>1623</v>
       </c>
       <c r="K80" t="n">
         <v>2278</v>
       </c>
       <c r="L80" t="n">
-        <v>0.48438015625</v>
+        <v>0.4882863671875001</v>
       </c>
       <c r="M80" t="b">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>-50</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K81" t="n">
         <v>5546</v>
@@ -6169,7 +6169,7 @@
         <v>82089</v>
       </c>
       <c r="L82" t="n">
-        <v>0.460942890625</v>
+        <v>0.4648491015625</v>
       </c>
       <c r="M82" t="b">
         <v>0</v>
@@ -6428,7 +6428,7 @@
         <v>404</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F86" t="n">
         <v>0.01</v>
@@ -6437,13 +6437,13 @@
         <v>0.02</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J86" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K86" t="n">
         <v>7172</v>
@@ -6708,7 +6708,7 @@
         <v>408</v>
       </c>
       <c r="E90" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F90" t="n">
         <v>0.01</v>
@@ -6717,13 +6717,13 @@
         <v>0.02</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="I90" t="n">
-        <v>-66.66667</v>
+        <v>-33.333336</v>
       </c>
       <c r="J90" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K90" t="n">
         <v>9118</v>
@@ -6827,7 +6827,7 @@
         <v>-0</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="92">
@@ -6897,7 +6897,7 @@
         <v>-0</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="93">
@@ -6967,7 +6967,7 @@
         <v>-0</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="94">
@@ -7037,7 +7037,7 @@
         <v>-0</v>
       </c>
       <c r="T94" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="95">
@@ -7107,7 +7107,7 @@
         <v>-0</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="96">
@@ -7198,7 +7198,7 @@
         <v>415</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F97" t="n">
         <v>0.01</v>
@@ -7207,19 +7207,19 @@
         <v>0.02</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K97" t="n">
         <v>78060</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2890696093749999</v>
+        <v>0.2910227148437499</v>
       </c>
       <c r="M97" t="b">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>416</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F98" t="n">
         <v>0.01</v>
@@ -7277,19 +7277,19 @@
         <v>0.02</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="I98" t="n">
-        <v>-66.66667</v>
+        <v>-33.333336</v>
       </c>
       <c r="J98" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K98" t="n">
         <v>7206</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2773509765625</v>
+        <v>0.27930408203125</v>
       </c>
       <c r="M98" t="b">
         <v>0</v>
@@ -7353,13 +7353,13 @@
         <v>-33.333336</v>
       </c>
       <c r="J99" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="K99" t="n">
         <v>14993</v>
       </c>
       <c r="L99" t="n">
-        <v>0.26563234375</v>
+        <v>0.26758544921875</v>
       </c>
       <c r="M99" t="b">
         <v>0</v>
@@ -7423,13 +7423,13 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K100" t="n">
         <v>47426</v>
       </c>
       <c r="L100" t="n">
-        <v>0.26758544921875</v>
+        <v>0.2695385546875</v>
       </c>
       <c r="M100" t="b">
         <v>0</v>
@@ -7478,7 +7478,7 @@
         <v>419</v>
       </c>
       <c r="E101" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F101" t="n">
         <v>0.02</v>
@@ -7487,19 +7487,19 @@
         <v>0.03</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>-33.333336</v>
       </c>
       <c r="J101" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K101" t="n">
         <v>4279</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2539137109375</v>
+        <v>0.25586681640625</v>
       </c>
       <c r="M101" t="b">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>-0</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="102">
@@ -7563,13 +7563,13 @@
         <v>-50</v>
       </c>
       <c r="J102" t="n">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="K102" t="n">
         <v>64061</v>
       </c>
       <c r="L102" t="n">
-        <v>0.242195078125</v>
+        <v>0.24414818359375</v>
       </c>
       <c r="M102" t="b">
         <v>0</v>
@@ -7618,7 +7618,7 @@
         <v>421</v>
       </c>
       <c r="E103" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F103" t="n">
         <v>0.02</v>
@@ -7627,19 +7627,19 @@
         <v>0.03</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>-33.333336</v>
       </c>
       <c r="J103" t="n">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="K103" t="n">
         <v>30533</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2304764453125</v>
+        <v>0.23242955078125</v>
       </c>
       <c r="M103" t="b">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>422</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F104" t="n">
         <v>0.02</v>
@@ -7697,19 +7697,19 @@
         <v>0.03</v>
       </c>
       <c r="H104" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="K104" t="n">
         <v>9185</v>
       </c>
       <c r="L104" t="n">
-        <v>0.21680470703125</v>
+        <v>0.2187578125</v>
       </c>
       <c r="M104" t="b">
         <v>0</v>
@@ -7773,13 +7773,13 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1402</v>
+        <v>1523</v>
       </c>
       <c r="K105" t="n">
         <v>10319</v>
       </c>
       <c r="L105" t="n">
-        <v>0.213875048828125</v>
+        <v>0.215828154296875</v>
       </c>
       <c r="M105" t="b">
         <v>0</v>
@@ -7843,13 +7843,13 @@
         <v>-40.000004</v>
       </c>
       <c r="J106" t="n">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="K106" t="n">
         <v>10274</v>
       </c>
       <c r="L106" t="n">
-        <v>0.20117986328125</v>
+        <v>0.20313296875</v>
       </c>
       <c r="M106" t="b">
         <v>0</v>
@@ -7913,13 +7913,13 @@
         <v>-50</v>
       </c>
       <c r="J107" t="n">
-        <v>2915</v>
+        <v>3049</v>
       </c>
       <c r="K107" t="n">
         <v>53506</v>
       </c>
       <c r="L107" t="n">
-        <v>0.187508125</v>
+        <v>0.18946123046875</v>
       </c>
       <c r="M107" t="b">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>426</v>
       </c>
       <c r="E108" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F108" t="n">
         <v>0.03</v>
@@ -7977,19 +7977,19 @@
         <v>0.04</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="I108" t="n">
-        <v>-33.333336</v>
+        <v>-50</v>
       </c>
       <c r="J108" t="n">
-        <v>35443</v>
+        <v>35478</v>
       </c>
       <c r="K108" t="n">
         <v>41654</v>
       </c>
       <c r="L108" t="n">
-        <v>0.174812939453125</v>
+        <v>0.176766044921875</v>
       </c>
       <c r="M108" t="b">
         <v>0</v>
@@ -8038,7 +8038,7 @@
         <v>427</v>
       </c>
       <c r="E109" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F109" t="n">
         <v>0.04</v>
@@ -8047,19 +8047,19 @@
         <v>0.05</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.02</v>
+        <v>-0.030000001</v>
       </c>
       <c r="I109" t="n">
-        <v>-28.571426</v>
+        <v>-42.857143</v>
       </c>
       <c r="J109" t="n">
-        <v>1941</v>
+        <v>2002</v>
       </c>
       <c r="K109" t="n">
         <v>11640</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1679770703125</v>
+        <v>0.16993017578125</v>
       </c>
       <c r="M109" t="b">
         <v>0</v>
@@ -8087,7 +8087,7 @@
         <v>-0</v>
       </c>
       <c r="T109" t="n">
-        <v>-0.016</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="110">
@@ -8108,7 +8108,7 @@
         <v>428</v>
       </c>
       <c r="E110" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F110" t="n">
         <v>0.04</v>
@@ -8117,19 +8117,19 @@
         <v>0.05</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.050000004</v>
+        <v>-0.040000003</v>
       </c>
       <c r="I110" t="n">
-        <v>-55.555557</v>
+        <v>-44.444447</v>
       </c>
       <c r="J110" t="n">
-        <v>6114</v>
+        <v>6181</v>
       </c>
       <c r="K110" t="n">
         <v>43786</v>
       </c>
       <c r="L110" t="n">
-        <v>0.15430533203125</v>
+        <v>0.1562584375</v>
       </c>
       <c r="M110" t="b">
         <v>0</v>
@@ -8193,13 +8193,13 @@
         <v>-54.545456</v>
       </c>
       <c r="J111" t="n">
-        <v>4660</v>
+        <v>5036</v>
       </c>
       <c r="K111" t="n">
         <v>13492</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1445398046875</v>
+        <v>0.14649291015625</v>
       </c>
       <c r="M111" t="b">
         <v>0</v>
@@ -8263,13 +8263,13 @@
         <v>-53.84615</v>
       </c>
       <c r="J112" t="n">
-        <v>52340</v>
+        <v>52817</v>
       </c>
       <c r="K112" t="n">
         <v>168080</v>
       </c>
       <c r="L112" t="n">
-        <v>0.133797724609375</v>
+        <v>0.1367273828125</v>
       </c>
       <c r="M112" t="b">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>-0</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.026</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="113">
@@ -8318,28 +8318,28 @@
         <v>431</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F113" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.09</v>
       </c>
-      <c r="G113" t="n">
-        <v>0.1</v>
-      </c>
       <c r="H113" t="n">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="I113" t="n">
-        <v>-50</v>
+        <v>-65</v>
       </c>
       <c r="J113" t="n">
-        <v>12079</v>
+        <v>12518</v>
       </c>
       <c r="K113" t="n">
         <v>22133</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1284266845703125</v>
+        <v>0.127938408203125</v>
       </c>
       <c r="M113" t="b">
         <v>0</v>
@@ -8355,19 +8355,19 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>-0.012</v>
+        <v>-0.01</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="R113" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="S113" t="n">
         <v>-0</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.045</v>
+        <v>-0.039</v>
       </c>
     </row>
     <row r="114">
@@ -8388,28 +8388,28 @@
         <v>432</v>
       </c>
       <c r="E114" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F114" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="G114" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.14999999</v>
+        <v>-0.17999999</v>
       </c>
       <c r="I114" t="n">
-        <v>-51.724136</v>
+        <v>-62.068962</v>
       </c>
       <c r="J114" t="n">
-        <v>22322</v>
+        <v>23890</v>
       </c>
       <c r="K114" t="n">
         <v>35263</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1215908154296875</v>
+        <v>0.1176846044921875</v>
       </c>
       <c r="M114" t="b">
         <v>0</v>
@@ -8425,19 +8425,19 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>-0.022</v>
+        <v>-0.016</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="R114" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S114" t="n">
         <v>-0</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0.053</v>
       </c>
     </row>
     <row r="115">
@@ -8458,28 +8458,28 @@
         <v>433</v>
       </c>
       <c r="E115" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="F115" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="G115" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.19</v>
+        <v>-0.26</v>
       </c>
       <c r="I115" t="n">
-        <v>-46.341465</v>
+        <v>-63.414635</v>
       </c>
       <c r="J115" t="n">
-        <v>19886</v>
+        <v>21915</v>
       </c>
       <c r="K115" t="n">
         <v>27239</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1184170190429688</v>
+        <v>0.1130459790039063</v>
       </c>
       <c r="M115" t="b">
         <v>0</v>
@@ -8495,19 +8495,19 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>-0.044</v>
+        <v>-0.033</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="R115" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="S115" t="n">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
       <c r="T115" t="n">
-        <v>-0.124</v>
+        <v>-0.093</v>
       </c>
     </row>
     <row r="116">
@@ -8528,28 +8528,28 @@
         <v>434</v>
       </c>
       <c r="E116" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="F116" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="G116" t="n">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.3</v>
+        <v>-0.36</v>
       </c>
       <c r="I116" t="n">
-        <v>-48.3871</v>
+        <v>-58.06452</v>
       </c>
       <c r="J116" t="n">
-        <v>36797</v>
+        <v>39680</v>
       </c>
       <c r="K116" t="n">
         <v>23808</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1149990844726562</v>
+        <v>0.1066983862304688</v>
       </c>
       <c r="M116" t="b">
         <v>0</v>
@@ -8565,19 +8565,19 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-0.062</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.059</v>
+        <v>0.05</v>
       </c>
       <c r="R116" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="S116" t="n">
         <v>-0.001</v>
       </c>
       <c r="T116" t="n">
-        <v>-0.2</v>
+        <v>-0.146</v>
       </c>
     </row>
     <row r="117">
@@ -8598,28 +8598,28 @@
         <v>435</v>
       </c>
       <c r="E117" t="n">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="F117" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="G117" t="n">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.37</v>
+        <v>-0.51</v>
       </c>
       <c r="I117" t="n">
-        <v>-41.573036</v>
+        <v>-57.303368</v>
       </c>
       <c r="J117" t="n">
-        <v>83992</v>
+        <v>87312</v>
       </c>
       <c r="K117" t="n">
         <v>46918</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1131680480957031</v>
+        <v>0.1057218334960937</v>
       </c>
       <c r="M117" t="b">
         <v>0</v>
@@ -8635,19 +8635,19 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>-0.158</v>
+        <v>-0.129</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.093</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="R117" t="n">
-        <v>0.055</v>
+        <v>0.048</v>
       </c>
       <c r="S117" t="n">
         <v>-0.002</v>
       </c>
       <c r="T117" t="n">
-        <v>-0.303</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="118">
@@ -8668,28 +8668,28 @@
         <v>436</v>
       </c>
       <c r="E118" t="n">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G118" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.46000004</v>
+        <v>-0.6</v>
       </c>
       <c r="I118" t="n">
-        <v>-37.09678</v>
+        <v>-48.3871</v>
       </c>
       <c r="J118" t="n">
-        <v>95675</v>
+        <v>99367</v>
       </c>
       <c r="K118" t="n">
         <v>18201</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1120694262695312</v>
+        <v>0.09937424072265624</v>
       </c>
       <c r="M118" t="b">
         <v>0</v>
@@ -8705,19 +8705,19 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>-0.267</v>
+        <v>-0.223</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.128</v>
+        <v>0.131</v>
       </c>
       <c r="R118" t="n">
-        <v>0.075</v>
+        <v>0.068</v>
       </c>
       <c r="S118" t="n">
         <v>-0.003</v>
       </c>
       <c r="T118" t="n">
-        <v>-0.405</v>
+        <v>-0.325</v>
       </c>
     </row>
     <row r="119">
@@ -8738,28 +8738,28 @@
         <v>437</v>
       </c>
       <c r="E119" t="n">
-        <v>1.16</v>
+        <v>0.99</v>
       </c>
       <c r="F119" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="G119" t="n">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.5400001</v>
+        <v>-0.7100000400000001</v>
       </c>
       <c r="I119" t="n">
-        <v>-31.76471</v>
+        <v>-41.764706</v>
       </c>
       <c r="J119" t="n">
-        <v>105192</v>
+        <v>110274</v>
       </c>
       <c r="K119" t="n">
         <v>16274</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1106045971679687</v>
+        <v>0.09644458251953125</v>
       </c>
       <c r="M119" t="b">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>-0.408</v>
+        <v>-0.37</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.153</v>
+        <v>0.171</v>
       </c>
       <c r="R119" t="n">
-        <v>0.089</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="S119" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="T119" t="n">
-        <v>-0.466</v>
+        <v>-0.394</v>
       </c>
     </row>
     <row r="120">
@@ -8808,28 +8808,28 @@
         <v>438</v>
       </c>
       <c r="E120" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="F120" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="G120" t="n">
-        <v>1.74</v>
+        <v>1.38</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.57000005</v>
+        <v>-0.79999995</v>
       </c>
       <c r="I120" t="n">
-        <v>-25.333336</v>
+        <v>-35.555553</v>
       </c>
       <c r="J120" t="n">
-        <v>55508</v>
+        <v>58333</v>
       </c>
       <c r="K120" t="n">
         <v>12283</v>
       </c>
       <c r="L120" t="n">
-        <v>0.11524322265625</v>
+        <v>0.0942473388671875</v>
       </c>
       <c r="M120" t="b">
         <v>1</v>
@@ -8845,19 +8845,19 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>-0.5620000000000001</v>
+        <v>-0.549</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.149</v>
+        <v>0.183</v>
       </c>
       <c r="R120" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="S120" t="n">
         <v>-0.007</v>
       </c>
       <c r="T120" t="n">
-        <v>-0.485</v>
+        <v>-0.393</v>
       </c>
     </row>
     <row r="121">
@@ -8878,28 +8878,28 @@
         <v>439</v>
       </c>
       <c r="E121" t="n">
-        <v>2.39</v>
+        <v>1.97</v>
       </c>
       <c r="F121" t="n">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="G121" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.5</v>
+        <v>-0.9200001</v>
       </c>
       <c r="I121" t="n">
-        <v>-17.301039</v>
+        <v>-31.833912</v>
       </c>
       <c r="J121" t="n">
-        <v>17897</v>
+        <v>19441</v>
       </c>
       <c r="K121" t="n">
         <v>8645</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1215908154296875</v>
+        <v>0.09205009521484375</v>
       </c>
       <c r="M121" t="b">
         <v>1</v>
@@ -8915,19 +8915,19 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>-0.6929999999999999</v>
+        <v>-0.726</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.126</v>
+        <v>0.158</v>
       </c>
       <c r="R121" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="S121" t="n">
-        <v>-0.008</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.445</v>
+        <v>-0.305</v>
       </c>
     </row>
     <row r="122">
@@ -8948,28 +8948,28 @@
         <v>440</v>
       </c>
       <c r="E122" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="F122" t="n">
-        <v>3.12</v>
+        <v>2.64</v>
       </c>
       <c r="G122" t="n">
-        <v>3.15</v>
+        <v>2.66</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.48000002</v>
+        <v>-0.8700001000000001</v>
       </c>
       <c r="I122" t="n">
-        <v>-13.22314</v>
+        <v>-23.966944</v>
       </c>
       <c r="J122" t="n">
-        <v>5201</v>
+        <v>5275</v>
       </c>
       <c r="K122" t="n">
         <v>7537</v>
       </c>
       <c r="L122" t="n">
-        <v>0.12500875</v>
+        <v>0.08912043701171876</v>
       </c>
       <c r="M122" t="b">
         <v>1</v>
@@ -8985,19 +8985,19 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>-0.799</v>
+        <v>-0.866</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.098</v>
+        <v>0.106</v>
       </c>
       <c r="R122" t="n">
-        <v>0.064</v>
+        <v>0.049</v>
       </c>
       <c r="S122" t="n">
         <v>-0.01</v>
       </c>
       <c r="T122" t="n">
-        <v>-0.351</v>
+        <v>-0.166</v>
       </c>
     </row>
     <row r="123">
@@ -9018,28 +9018,28 @@
         <v>441</v>
       </c>
       <c r="E123" t="n">
-        <v>3.97</v>
+        <v>3.5</v>
       </c>
       <c r="F123" t="n">
-        <v>3.95</v>
+        <v>3.53</v>
       </c>
       <c r="G123" t="n">
-        <v>4.01</v>
+        <v>3.67</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.41999984</v>
+        <v>-0.88999987</v>
       </c>
       <c r="I123" t="n">
-        <v>-9.567194000000001</v>
+        <v>-20.273346</v>
       </c>
       <c r="J123" t="n">
-        <v>2004</v>
+        <v>2038</v>
       </c>
       <c r="K123" t="n">
         <v>1476</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1350184155273438</v>
+        <v>0.1120694262695312</v>
       </c>
       <c r="M123" t="b">
         <v>1</v>
@@ -9055,19 +9055,19 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>-0.864</v>
+        <v>-0.897</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R123" t="n">
-        <v>0.05</v>
+        <v>0.041</v>
       </c>
       <c r="S123" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="T123" t="n">
-        <v>-0.283</v>
+        <v>-0.173</v>
       </c>
     </row>
     <row r="124">
@@ -9088,28 +9088,28 @@
         <v>442</v>
       </c>
       <c r="E124" t="n">
-        <v>4.97</v>
+        <v>4.52</v>
       </c>
       <c r="F124" t="n">
-        <v>4.81</v>
+        <v>4.38</v>
       </c>
       <c r="G124" t="n">
-        <v>5.01</v>
+        <v>4.57</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.37000036</v>
+        <v>-0.8200002</v>
       </c>
       <c r="I124" t="n">
-        <v>-6.928846</v>
+        <v>-15.355807</v>
       </c>
       <c r="J124" t="n">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="K124" t="n">
         <v>175</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1567467138671875</v>
+        <v>0.11914943359375</v>
       </c>
       <c r="M124" t="b">
         <v>1</v>
@@ -9125,19 +9125,19 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>-0.889</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.053</v>
+        <v>0.044</v>
       </c>
       <c r="R124" t="n">
-        <v>0.043</v>
+        <v>0.027</v>
       </c>
       <c r="S124" t="n">
         <v>-0.011</v>
       </c>
       <c r="T124" t="n">
-        <v>-0.284</v>
+        <v>-0.103</v>
       </c>
     </row>
     <row r="125">
@@ -9161,10 +9161,10 @@
         <v>6.45</v>
       </c>
       <c r="F125" t="n">
-        <v>5.68</v>
+        <v>5.16</v>
       </c>
       <c r="G125" t="n">
-        <v>5.91</v>
+        <v>5.38</v>
       </c>
       <c r="H125" t="n">
         <v>-1.1500001</v>
@@ -9179,7 +9179,7 @@
         <v>25</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1652915502929688</v>
+        <v>0.09961837890625</v>
       </c>
       <c r="M125" t="b">
         <v>1</v>
@@ -9195,19 +9195,19 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>-0.922</v>
+        <v>-0.989</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.039</v>
+        <v>0.013</v>
       </c>
       <c r="R125" t="n">
-        <v>0.033</v>
+        <v>0.007</v>
       </c>
       <c r="S125" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T125" t="n">
-        <v>-0.218</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="126">
@@ -9228,28 +9228,28 @@
         <v>444</v>
       </c>
       <c r="E126" t="n">
-        <v>6.87</v>
+        <v>6.43</v>
       </c>
       <c r="F126" t="n">
-        <v>6.69</v>
+        <v>6.3</v>
       </c>
       <c r="G126" t="n">
-        <v>6.96</v>
+        <v>6.53</v>
       </c>
       <c r="H126" t="n">
-        <v>-1.4099998</v>
+        <v>-1.8499999</v>
       </c>
       <c r="I126" t="n">
-        <v>-17.028984</v>
+        <v>-22.342995</v>
       </c>
       <c r="J126" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K126" t="n">
         <v>48</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1914143359375</v>
+        <v>0.148446015625</v>
       </c>
       <c r="M126" t="b">
         <v>1</v>
@@ -9265,19 +9265,19 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>-0.926</v>
+        <v>-0.966</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.032</v>
+        <v>0.022</v>
       </c>
       <c r="R126" t="n">
-        <v>0.032</v>
+        <v>0.017</v>
       </c>
       <c r="S126" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T126" t="n">
-        <v>-0.247</v>
+        <v>-0.066</v>
       </c>
     </row>
     <row r="127">
@@ -9298,28 +9298,28 @@
         <v>445</v>
       </c>
       <c r="E127" t="n">
-        <v>8.279999999999999</v>
+        <v>7.22</v>
       </c>
       <c r="F127" t="n">
-        <v>7.69</v>
+        <v>7.13</v>
       </c>
       <c r="G127" t="n">
-        <v>7.93</v>
+        <v>7.35</v>
       </c>
       <c r="H127" t="n">
-        <v>-1.7200003</v>
+        <v>-2.7800002</v>
       </c>
       <c r="I127" t="n">
-        <v>-17.200003</v>
+        <v>-27.800003</v>
       </c>
       <c r="J127" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K127" t="n">
         <v>107</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2065509033203125</v>
+        <v>0.116219775390625</v>
       </c>
       <c r="M127" t="b">
         <v>1</v>
@@ -9335,19 +9335,19 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>-0.9389999999999999</v>
+        <v>-0.997</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.025</v>
+        <v>0.004</v>
       </c>
       <c r="R127" t="n">
-        <v>0.028</v>
+        <v>0.002</v>
       </c>
       <c r="S127" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T127" t="n">
-        <v>-0.224</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="128">
@@ -9371,10 +9371,10 @@
         <v>8.789999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>8.74</v>
+        <v>8.16</v>
       </c>
       <c r="G128" t="n">
-        <v>9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H128" t="n">
         <v>-1.7200003</v>
@@ -9389,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2351150708007813</v>
+        <v>0.1860432958984375</v>
       </c>
       <c r="M128" t="b">
         <v>1</v>
@@ -9405,19 +9405,19 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>-0.9379999999999999</v>
+        <v>-0.972</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
       <c r="R128" t="n">
-        <v>0.028</v>
+        <v>0.015</v>
       </c>
       <c r="S128" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T128" t="n">
-        <v>-0.267</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="129">
@@ -9441,10 +9441,10 @@
         <v>10</v>
       </c>
       <c r="F129" t="n">
-        <v>9.77</v>
+        <v>9.06</v>
       </c>
       <c r="G129" t="n">
-        <v>10.01</v>
+        <v>9.35</v>
       </c>
       <c r="H129" t="n">
         <v>-1.4499998</v>
@@ -9459,7 +9459,7 @@
         <v>20</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2551344018554688</v>
+        <v>0.14258669921875</v>
       </c>
       <c r="M129" t="b">
         <v>1</v>
@@ -9475,19 +9475,19 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>-0.944</v>
+        <v>-0.997</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.019</v>
+        <v>0.002</v>
       </c>
       <c r="R129" t="n">
-        <v>0.026</v>
+        <v>0.002</v>
       </c>
       <c r="S129" t="n">
         <v>-0.012</v>
       </c>
       <c r="T129" t="n">
-        <v>-0.27</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="130">
@@ -9511,10 +9511,10 @@
         <v>10.82</v>
       </c>
       <c r="F130" t="n">
-        <v>10.71</v>
+        <v>10.1</v>
       </c>
       <c r="G130" t="n">
-        <v>10.95</v>
+        <v>10.35</v>
       </c>
       <c r="H130" t="n">
         <v>-1.9900007</v>
@@ -9529,7 +9529,7 @@
         <v>5</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2641675146484375</v>
+        <v>0.155281884765625</v>
       </c>
       <c r="M130" t="b">
         <v>1</v>
@@ -9545,19 +9545,19 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>-0.955</v>
+        <v>-0.998</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.016</v>
+        <v>0.002</v>
       </c>
       <c r="R130" t="n">
-        <v>0.022</v>
+        <v>0.002</v>
       </c>
       <c r="S130" t="n">
         <v>-0.012</v>
       </c>
       <c r="T130" t="n">
-        <v>-0.225</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="131">
@@ -9581,10 +9581,10 @@
         <v>13.47</v>
       </c>
       <c r="F131" t="n">
-        <v>11.71</v>
+        <v>11.16</v>
       </c>
       <c r="G131" t="n">
-        <v>11.95</v>
+        <v>11.42</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2817454638671875</v>
+        <v>0.1992267578125</v>
       </c>
       <c r="M131" t="b">
         <v>1</v>
@@ -9615,19 +9615,19 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>-0.959</v>
+        <v>-0.993</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="R131" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="S131" t="n">
         <v>-0.012</v>
       </c>
       <c r="T131" t="n">
-        <v>-0.222</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="132">
@@ -9651,10 +9651,10 @@
         <v>13.28</v>
       </c>
       <c r="F132" t="n">
-        <v>12.71</v>
+        <v>12.12</v>
       </c>
       <c r="G132" t="n">
-        <v>13.02</v>
+        <v>12.49</v>
       </c>
       <c r="H132" t="n">
         <v>-1.1700001</v>
@@ -9669,7 +9669,7 @@
         <v>24</v>
       </c>
       <c r="L132" t="n">
-        <v>0.31055376953125</v>
+        <v>0.23438265625</v>
       </c>
       <c r="M132" t="b">
         <v>1</v>
@@ -9685,19 +9685,19 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>-0.957</v>
+        <v>-0.988</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="R132" t="n">
-        <v>0.021</v>
+        <v>0.007</v>
       </c>
       <c r="S132" t="n">
         <v>-0.012</v>
       </c>
       <c r="T132" t="n">
-        <v>-0.265</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="133">
@@ -9721,10 +9721,10 @@
         <v>13.24</v>
       </c>
       <c r="F133" t="n">
-        <v>13.71</v>
+        <v>13.23</v>
       </c>
       <c r="G133" t="n">
-        <v>13.97</v>
+        <v>13.42</v>
       </c>
       <c r="H133" t="n">
         <v>-1.3299999</v>
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
-        <v>0.3193427441406249</v>
+        <v>0.226570234375</v>
       </c>
       <c r="M133" t="b">
         <v>1</v>
@@ -9755,19 +9755,19 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>-0.964</v>
+        <v>-0.994</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="R133" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="S133" t="n">
         <v>-0.012</v>
       </c>
       <c r="T133" t="n">
-        <v>-0.227</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="134">
@@ -9791,10 +9791,10 @@
         <v>15.6</v>
       </c>
       <c r="F134" t="n">
-        <v>14.7</v>
+        <v>14.24</v>
       </c>
       <c r="G134" t="n">
-        <v>14.96</v>
+        <v>14.36</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9809,7 +9809,7 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>0.3344793115234375</v>
+        <v>0.210945390625</v>
       </c>
       <c r="M134" t="b">
         <v>1</v>
@@ -9825,19 +9825,19 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>-0.967</v>
+        <v>-0.998</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="R134" t="n">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
       <c r="S134" t="n">
         <v>-0.012</v>
       </c>
       <c r="T134" t="n">
-        <v>-0.217</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="135">
@@ -9861,10 +9861,10 @@
         <v>19.87</v>
       </c>
       <c r="F135" t="n">
-        <v>15.67</v>
+        <v>15.16</v>
       </c>
       <c r="G135" t="n">
-        <v>15.93</v>
+        <v>15.42</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>0.3452213916015625</v>
+        <v>0.2539137109375</v>
       </c>
       <c r="M135" t="b">
         <v>1</v>
@@ -9895,19 +9895,19 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>-0.972</v>
+        <v>-0.995</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="R135" t="n">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="S135" t="n">
         <v>-0.012</v>
       </c>
       <c r="T135" t="n">
-        <v>-0.192</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="136">
@@ -9931,10 +9931,10 @@
         <v>18.5</v>
       </c>
       <c r="F136" t="n">
-        <v>16.69</v>
+        <v>16.16</v>
       </c>
       <c r="G136" t="n">
-        <v>16.92</v>
+        <v>16.35</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>0.35938140625</v>
+        <v>0.22852333984375</v>
       </c>
       <c r="M136" t="b">
         <v>1</v>
@@ -9965,19 +9965,19 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>-0.974</v>
+        <v>-0.999</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="R136" t="n">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="S136" t="n">
         <v>-0.012</v>
       </c>
       <c r="T136" t="n">
-        <v>-0.182</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="137">
@@ -10001,10 +10001,10 @@
         <v>19.48</v>
       </c>
       <c r="F137" t="n">
-        <v>17.7</v>
+        <v>17.29</v>
       </c>
       <c r="G137" t="n">
-        <v>17.98</v>
+        <v>17.55</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -10019,7 +10019,7 @@
         <v>3</v>
       </c>
       <c r="L137" t="n">
-        <v>0.3872131591796875</v>
+        <v>0.3242255078124999</v>
       </c>
       <c r="M137" t="b">
         <v>1</v>
@@ -10035,19 +10035,19 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>-0.972</v>
+        <v>-0.988</v>
       </c>
       <c r="Q137" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="R137" t="n">
         <v>0.007</v>
-      </c>
-      <c r="R137" t="n">
-        <v>0.015</v>
       </c>
       <c r="S137" t="n">
         <v>-0.012</v>
       </c>
       <c r="T137" t="n">
-        <v>-0.219</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="138">
@@ -10071,10 +10071,10 @@
         <v>21.3</v>
       </c>
       <c r="F138" t="n">
-        <v>18.74</v>
+        <v>18.29</v>
       </c>
       <c r="G138" t="n">
-        <v>18.98</v>
+        <v>18.53</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>0.403326279296875</v>
+        <v>0.333014482421875</v>
       </c>
       <c r="M138" t="b">
         <v>1</v>
@@ -10105,19 +10105,19 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>-0.974</v>
+        <v>-0.99</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="R138" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="S138" t="n">
         <v>-0.012</v>
       </c>
       <c r="T138" t="n">
-        <v>-0.215</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="139">
@@ -10141,10 +10141,10 @@
         <v>18.5</v>
       </c>
       <c r="F139" t="n">
-        <v>20.74</v>
+        <v>20.29</v>
       </c>
       <c r="G139" t="n">
-        <v>20.97</v>
+        <v>20.53</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4331111376953125</v>
+        <v>0.36133451171875</v>
       </c>
       <c r="M139" t="b">
         <v>1</v>
@@ -10175,19 +10175,19 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>-0.977</v>
+        <v>-0.991</v>
       </c>
       <c r="Q139" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="R139" t="n">
         <v>0.005</v>
-      </c>
-      <c r="R139" t="n">
-        <v>0.012</v>
       </c>
       <c r="S139" t="n">
         <v>-0.012</v>
       </c>
       <c r="T139" t="n">
-        <v>-0.203</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="140">
@@ -10211,10 +10211,10 @@
         <v>24.5</v>
       </c>
       <c r="F140" t="n">
-        <v>22.7</v>
+        <v>22.16</v>
       </c>
       <c r="G140" t="n">
-        <v>22.95</v>
+        <v>22.42</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4594780615234375</v>
+        <v>0.3437565625</v>
       </c>
       <c r="M140" t="b">
         <v>1</v>
@@ -10245,19 +10245,19 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>-0.981</v>
+        <v>-0.997</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="R140" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="S140" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="T140" t="n">
-        <v>-0.184</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="141">
@@ -10281,10 +10281,10 @@
         <v>26.6</v>
       </c>
       <c r="F141" t="n">
-        <v>24.7</v>
+        <v>24.29</v>
       </c>
       <c r="G141" t="n">
-        <v>24.95</v>
+        <v>24.52</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -10299,7 +10299,7 @@
         <v>2</v>
       </c>
       <c r="L141" t="n">
-        <v>0.4897511962890626</v>
+        <v>0.41211525390625</v>
       </c>
       <c r="M141" t="b">
         <v>1</v>
@@ -10315,19 +10315,19 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>-0.982</v>
+        <v>-0.994</v>
       </c>
       <c r="Q141" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="R141" t="n">
         <v>0.004</v>
       </c>
-      <c r="R141" t="n">
-        <v>0.01</v>
-      </c>
       <c r="S141" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="T141" t="n">
-        <v>-0.179</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="142">
@@ -10351,10 +10351,10 @@
         <v>28.67</v>
       </c>
       <c r="F142" t="n">
-        <v>26.76</v>
+        <v>26.15</v>
       </c>
       <c r="G142" t="n">
-        <v>27</v>
+        <v>26.41</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>5</v>
       </c>
       <c r="L142" t="n">
-        <v>0.5014698291015626</v>
+        <v>0.387701435546875</v>
       </c>
       <c r="M142" t="b">
         <v>1</v>
@@ -10385,19 +10385,19 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>-0.987</v>
+        <v>-0.998</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="R142" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="S142" t="n">
         <v>-0.013</v>
       </c>
       <c r="T142" t="n">
-        <v>-0.129</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="143">
@@ -10421,10 +10421,10 @@
         <v>30.2</v>
       </c>
       <c r="F143" t="n">
-        <v>27.7</v>
+        <v>27.21</v>
       </c>
       <c r="G143" t="n">
-        <v>27.95</v>
+        <v>27.45</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>3</v>
       </c>
       <c r="L143" t="n">
-        <v>0.5004932763671875</v>
+        <v>0.42188078125</v>
       </c>
       <c r="M143" t="b">
         <v>1</v>
@@ -10455,19 +10455,19 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>-0.989</v>
+        <v>-0.997</v>
       </c>
       <c r="Q143" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R143" t="n">
         <v>0.002</v>
-      </c>
-      <c r="R143" t="n">
-        <v>0.006</v>
       </c>
       <c r="S143" t="n">
         <v>-0.013</v>
       </c>
       <c r="T143" t="n">
-        <v>-0.094</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="144">
@@ -10491,10 +10491,10 @@
         <v>28.63</v>
       </c>
       <c r="F144" t="n">
-        <v>28.76</v>
+        <v>28.18</v>
       </c>
       <c r="G144" t="n">
-        <v>29</v>
+        <v>28.43</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.5302781347656251</v>
+        <v>0.42383388671875</v>
       </c>
       <c r="M144" t="b">
         <v>1</v>
@@ -10523,19 +10523,19 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>-0.988</v>
+        <v>-0.998</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="R144" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="S144" t="n">
         <v>-0.013</v>
       </c>
       <c r="T144" t="n">
-        <v>-0.125</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="145">
@@ -10559,10 +10559,10 @@
         <v>32.64</v>
       </c>
       <c r="F145" t="n">
-        <v>30.76</v>
+        <v>30.24</v>
       </c>
       <c r="G145" t="n">
-        <v>31</v>
+        <v>30.53</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10577,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.5581098876953126</v>
+        <v>0.495122236328125</v>
       </c>
       <c r="M145" t="b">
         <v>1</v>
@@ -10593,19 +10593,19 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>-0.989</v>
+        <v>-0.995</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="R145" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="S145" t="n">
         <v>-0.013</v>
       </c>
       <c r="T145" t="n">
-        <v>-0.12</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="146">
@@ -10629,10 +10629,10 @@
         <v>32.46</v>
       </c>
       <c r="F146" t="n">
-        <v>32.7</v>
+        <v>32.22</v>
       </c>
       <c r="G146" t="n">
-        <v>32.96</v>
+        <v>32.45</v>
       </c>
       <c r="H146" t="n">
         <v>-3.8199997</v>
@@ -10647,7 +10647,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>0.5708050732421875</v>
+        <v>0.48242705078125</v>
       </c>
       <c r="M146" t="b">
         <v>1</v>
@@ -10663,19 +10663,19 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>-0.991</v>
+        <v>-0.997</v>
       </c>
       <c r="Q146" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="R146" t="n">
         <v>0.002</v>
-      </c>
-      <c r="R146" t="n">
-        <v>0.005</v>
       </c>
       <c r="S146" t="n">
         <v>-0.013</v>
       </c>
       <c r="T146" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="147">
@@ -10699,10 +10699,10 @@
         <v>34.61</v>
       </c>
       <c r="F147" t="n">
-        <v>34.7</v>
+        <v>34.09</v>
       </c>
       <c r="G147" t="n">
-        <v>34.96</v>
+        <v>34.35</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>0.5976602734375001</v>
+        <v>0.4257869921875</v>
       </c>
       <c r="M147" t="b">
         <v>1</v>
@@ -10731,19 +10731,19 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>-0.992</v>
+        <v>-1</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="R147" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S147" t="n">
         <v>-0.013</v>
       </c>
       <c r="T147" t="n">
-        <v>-0.08400000000000001</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="148">
@@ -10767,10 +10767,10 @@
         <v>37.17</v>
       </c>
       <c r="F148" t="n">
-        <v>36.69</v>
+        <v>36.18</v>
       </c>
       <c r="G148" t="n">
-        <v>36.95</v>
+        <v>36.41</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>0.6210975390625001</v>
+        <v>0.5039112109375</v>
       </c>
       <c r="M148" t="b">
         <v>1</v>
@@ -10801,19 +10801,19 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>-0.993</v>
+        <v>-0.999</v>
       </c>
       <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
         <v>0.001</v>
-      </c>
-      <c r="R148" t="n">
-        <v>0.005</v>
       </c>
       <c r="S148" t="n">
         <v>-0.013</v>
       </c>
       <c r="T148" t="n">
-        <v>-0.076</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="149">
@@ -10837,10 +10837,10 @@
         <v>38.15</v>
       </c>
       <c r="F149" t="n">
-        <v>37.69</v>
+        <v>37.21</v>
       </c>
       <c r="G149" t="n">
-        <v>37.98</v>
+        <v>37.46</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>5</v>
       </c>
       <c r="L149" t="n">
-        <v>0.6391637646484375</v>
+        <v>0.5478560839843751</v>
       </c>
       <c r="M149" t="b">
         <v>1</v>
@@ -10871,19 +10871,19 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>-0.993</v>
+        <v>-0.998</v>
       </c>
       <c r="Q149" t="n">
         <v>0.001</v>
       </c>
       <c r="R149" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="S149" t="n">
         <v>-0.013</v>
       </c>
       <c r="T149" t="n">
-        <v>-0.082</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="150">
@@ -10907,10 +10907,10 @@
         <v>41.02</v>
       </c>
       <c r="F150" t="n">
-        <v>40.69</v>
+        <v>40.28</v>
       </c>
       <c r="G150" t="n">
-        <v>40.97</v>
+        <v>40.53</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.6767610449218751</v>
+        <v>0.5449264257812501</v>
       </c>
       <c r="M150" t="b">
         <v>1</v>
@@ -10939,19 +10939,19 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>-0.993</v>
+        <v>-0.999</v>
       </c>
       <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
         <v>0.001</v>
-      </c>
-      <c r="R150" t="n">
-        <v>0.004</v>
       </c>
       <c r="S150" t="n">
         <v>-0.013</v>
       </c>
       <c r="T150" t="n">
-        <v>-0.076</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="151">
@@ -10975,10 +10975,10 @@
         <v>43.64</v>
       </c>
       <c r="F151" t="n">
-        <v>42.72</v>
+        <v>42.04</v>
       </c>
       <c r="G151" t="n">
-        <v>42.93</v>
+        <v>42.3</v>
       </c>
       <c r="H151" t="n">
         <v>1.0900002</v>
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.700198310546875</v>
+        <v>1e-05</v>
       </c>
       <c r="M151" t="b">
         <v>1</v>
@@ -11009,19 +11009,19 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>-0.994</v>
+        <v>-1</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S151" t="n">
         <v>-0.013</v>
       </c>
       <c r="T151" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="152">
@@ -11045,10 +11045,10 @@
         <v>49.85</v>
       </c>
       <c r="F152" t="n">
-        <v>47.75</v>
+        <v>47.22</v>
       </c>
       <c r="G152" t="n">
-        <v>47.99</v>
+        <v>47.46</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L152" t="n">
-        <v>0.780275634765625</v>
+        <v>0.5390671093750001</v>
       </c>
       <c r="M152" t="b">
         <v>1</v>
@@ -11079,19 +11079,19 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>-0.994</v>
+        <v>-1</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R152" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S152" t="n">
         <v>-0.013</v>
       </c>
       <c r="T152" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="153">
@@ -11115,10 +11115,10 @@
         <v>48.06</v>
       </c>
       <c r="F153" t="n">
-        <v>52.71</v>
+        <v>52.08</v>
       </c>
       <c r="G153" t="n">
-        <v>52.95</v>
+        <v>52.34</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="L153" t="n">
-        <v>0.8266618896484373</v>
+        <v>0.5898478515625001</v>
       </c>
       <c r="M153" t="b">
         <v>1</v>
@@ -11149,19 +11149,19 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>-0.995</v>
+        <v>-1</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R153" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S153" t="n">
         <v>-0.013</v>
       </c>
       <c r="T153" t="n">
-        <v>-0.061</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="154">
@@ -11185,10 +11185,10 @@
         <v>61.26</v>
       </c>
       <c r="F154" t="n">
-        <v>57.63</v>
+        <v>57.19</v>
       </c>
       <c r="G154" t="n">
-        <v>57.87</v>
+        <v>57.41</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>0.84961087890625</v>
+        <v>0.7324245507812499</v>
       </c>
       <c r="M154" t="b">
         <v>1</v>
@@ -11219,19 +11219,19 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>-0.997</v>
+        <v>-0.999</v>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
       </c>
       <c r="R154" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S154" t="n">
         <v>-0.014</v>
       </c>
       <c r="T154" t="n">
-        <v>-0.017</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="155">
@@ -11255,10 +11255,10 @@
         <v>63.75</v>
       </c>
       <c r="F155" t="n">
-        <v>62.72</v>
+        <v>62.14</v>
       </c>
       <c r="G155" t="n">
-        <v>62.93</v>
+        <v>62.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="n">
-        <v>0.9433599414062499</v>
+        <v>0.7734397656250001</v>
       </c>
       <c r="M155" t="b">
         <v>1</v>
@@ -11289,19 +11289,19 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>-0.996</v>
+        <v>-0.999</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R155" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S155" t="n">
         <v>-0.014</v>
       </c>
       <c r="T155" t="n">
-        <v>-0.048</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="156">
@@ -11325,10 +11325,10 @@
         <v>65.53</v>
       </c>
       <c r="F156" t="n">
-        <v>67.75</v>
+        <v>67.14</v>
       </c>
       <c r="G156" t="n">
-        <v>67.98</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11343,7 +11343,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="n">
-        <v>1.018559594726562</v>
+        <v>0.82226740234375</v>
       </c>
       <c r="M156" t="b">
         <v>1</v>
@@ -11359,19 +11359,19 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>-0.996</v>
+        <v>-1</v>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
       </c>
       <c r="R156" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S156" t="n">
         <v>-0.014</v>
       </c>
       <c r="T156" t="n">
-        <v>-0.063</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="157">
@@ -11395,10 +11395,10 @@
         <v>74.17</v>
       </c>
       <c r="F157" t="n">
-        <v>72.67</v>
+        <v>72.19</v>
       </c>
       <c r="G157" t="n">
-        <v>72.91</v>
+        <v>72.45</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11413,7 +11413,7 @@
         <v>2</v>
       </c>
       <c r="L157" t="n">
-        <v>1.0390673046875</v>
+        <v>0.6953155468750001</v>
       </c>
       <c r="M157" t="b">
         <v>1</v>
@@ -11429,19 +11429,19 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>-0.997</v>
+        <v>-1</v>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
       </c>
       <c r="R157" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S157" t="n">
         <v>-0.014</v>
       </c>
       <c r="T157" t="n">
-        <v>-0.024</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="158">
@@ -11465,10 +11465,10 @@
         <v>79.18000000000001</v>
       </c>
       <c r="F158" t="n">
-        <v>77.7</v>
+        <v>77.13</v>
       </c>
       <c r="G158" t="n">
-        <v>77.94</v>
+        <v>77.39</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="L158" t="n">
-        <v>1.110356010742187</v>
+        <v>0.9062509375</v>
       </c>
       <c r="M158" t="b">
         <v>1</v>
@@ -11499,19 +11499,19 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>-0.997</v>
+        <v>-1</v>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
       </c>
       <c r="R158" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S158" t="n">
         <v>-0.014</v>
       </c>
       <c r="T158" t="n">
-        <v>-0.034</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="159">
@@ -11535,10 +11535,10 @@
         <v>80.27</v>
       </c>
       <c r="F159" t="n">
-        <v>82.64</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>82.90000000000001</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>1.13672306640625</v>
+        <v>0.929688203125</v>
       </c>
       <c r="M159" t="b">
         <v>1</v>
@@ -11569,19 +11569,19 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>-0.998</v>
+        <v>-1</v>
       </c>
       <c r="Q159" t="n">
         <v>0</v>
       </c>
       <c r="R159" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S159" t="n">
         <v>-0.014</v>
       </c>
       <c r="T159" t="n">
-        <v>-0.01</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="160">
@@ -11605,10 +11605,10 @@
         <v>85.53</v>
       </c>
       <c r="F160" t="n">
-        <v>87.67</v>
+        <v>87.26000000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>87.92</v>
+        <v>87.51000000000001</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11623,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="L160" t="n">
-        <v>1.203128984375</v>
+        <v>0.992187578125</v>
       </c>
       <c r="M160" t="b">
         <v>1</v>
@@ -11639,19 +11639,19 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>-0.998</v>
+        <v>-1</v>
       </c>
       <c r="Q160" t="n">
         <v>0</v>
       </c>
       <c r="R160" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S160" t="n">
         <v>-0.014</v>
       </c>
       <c r="T160" t="n">
-        <v>-0.016</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="161">
@@ -11675,10 +11675,10 @@
         <v>90.53</v>
       </c>
       <c r="F161" t="n">
-        <v>92.73</v>
+        <v>92.2</v>
       </c>
       <c r="G161" t="n">
-        <v>92.97</v>
+        <v>92.44</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="n">
-        <v>1.286136381835937</v>
+        <v>0.851563984375</v>
       </c>
       <c r="M161" t="b">
         <v>1</v>
@@ -11709,19 +11709,19 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>-0.998</v>
+        <v>-1</v>
       </c>
       <c r="Q161" t="n">
         <v>0</v>
       </c>
       <c r="R161" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="T161" t="n">
-        <v>-0.036</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="162">
@@ -11745,10 +11745,10 @@
         <v>95.27</v>
       </c>
       <c r="F162" t="n">
-        <v>97.64</v>
+        <v>97.12</v>
       </c>
       <c r="G162" t="n">
-        <v>97.89</v>
+        <v>97.38</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
-        <v>1.288089497070312</v>
+        <v>1.072270263671875</v>
       </c>
       <c r="M162" t="b">
         <v>1</v>
@@ -11779,19 +11779,19 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>-0.998</v>
+        <v>-1</v>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S162" t="n">
         <v>-0.015</v>
       </c>
       <c r="T162" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="163">
@@ -11815,10 +11815,10 @@
         <v>100.21</v>
       </c>
       <c r="F163" t="n">
-        <v>102.67</v>
+        <v>102.06</v>
       </c>
       <c r="G163" t="n">
-        <v>102.93</v>
+        <v>102.32</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>1.360354760742188</v>
+        <v>0.92187578125</v>
       </c>
       <c r="M163" t="b">
         <v>1</v>
@@ -11849,19 +11849,19 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>-0.998</v>
+        <v>-1</v>
       </c>
       <c r="Q163" t="n">
         <v>0</v>
       </c>
       <c r="R163" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S163" t="n">
         <v>-0.015</v>
       </c>
       <c r="T163" t="n">
-        <v>-0.01</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="164">
@@ -11885,10 +11885,10 @@
         <v>105.17</v>
       </c>
       <c r="F164" t="n">
-        <v>107.62</v>
+        <v>107.25</v>
       </c>
       <c r="G164" t="n">
-        <v>107.89</v>
+        <v>107.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>1.379885913085937</v>
+        <v>1.1484417578125</v>
       </c>
       <c r="M164" t="b">
         <v>1</v>
@@ -11919,19 +11919,19 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>-0.999</v>
+        <v>-1</v>
       </c>
       <c r="Q164" t="n">
         <v>0</v>
       </c>
       <c r="R164" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S164" t="n">
         <v>-0.015</v>
       </c>
       <c r="T164" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/puts_output.xlsx
+++ b/puts_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-07-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-07-12" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPY230705P00350000</t>
+          <t>SPY230712P00372000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E2" t="n">
         <v>0.01</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -563,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8125018749999999</v>
+        <v>0.500005</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-3.4e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5e-06</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.7e-05</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>-1e-06</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.000956</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -606,7 +606,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPY230705P00360000</t>
+          <t>SPY230712P00373000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -632,14 +632,12 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>56</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7187528125</v>
+        <v>0.500005</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -655,19 +653,19 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>-3.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
-        <v>7e-06</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.1e-05</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-1e-06</v>
+        <v>-0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.000906</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -676,7 +674,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPY230705P00370000</t>
+          <t>SPY230712P00375000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -685,16 +683,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -702,14 +700,12 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>204</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6250037500000001</v>
+        <v>0.500005</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
@@ -725,19 +721,19 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-3.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8e-06</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.2e-05</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-1e-06</v>
+        <v>-0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.000803</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +742,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPY230705P00372000</t>
+          <t>SPY230712P00377000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -755,16 +751,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -773,13 +769,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6250037500000001</v>
+        <v>0.500005</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -795,19 +791,19 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>-6.1e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.2e-05</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.1e-05</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-1e-06</v>
+        <v>-0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.001265</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -816,7 +812,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPY230705P00373000</t>
+          <t>SPY230712P00378000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -825,16 +821,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -843,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6093789062500001</v>
+        <v>0.500005</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
@@ -865,19 +861,19 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>-5.2e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1e-05</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-1e-06</v>
+        <v>-0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.001066</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7">
@@ -886,7 +882,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPY230705P00374000</t>
+          <t>SPY230712P00379000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -895,16 +891,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -912,14 +908,12 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>111</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5937540625000001</v>
+        <v>0.500005</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -935,19 +929,19 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>-4.4e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9e-06</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>-1e-06</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.000888</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -956,7 +950,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPY230705P00379000</t>
+          <t>SPY230712P00380000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -965,16 +959,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -984,10 +978,10 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5625043750000001</v>
+        <v>0.500005</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1003,19 +997,19 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>-6.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5e-05</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-2e-06</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.001256</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
@@ -1024,7 +1018,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPY230705P00380000</t>
+          <t>SPY230712P00381000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1033,31 +1027,31 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5468795312500001</v>
+        <v>0.500005</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1073,19 +1067,19 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>-5.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.3e-05</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>7.6e-05</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T9" t="n">
         <v>-1e-06</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.001036</v>
       </c>
     </row>
     <row r="10">
@@ -1094,7 +1088,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPY230705P00382000</t>
+          <t>SPY230712P00382000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1106,13 +1100,13 @@
         <v>382</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1120,12 +1114,14 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>23</v>
+      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5312546875</v>
+        <v>0.500005</v>
       </c>
       <c r="M10" t="b">
         <v>0</v>
@@ -1141,19 +1137,19 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>-6.2e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4e-05</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.2e-05</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-2e-06</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.001091</v>
+        <v>-1e-06</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1158,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPY230705P00384000</t>
+          <t>SPY230712P00383000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1171,16 +1167,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1193,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.51562984375</v>
+        <v>0.500005</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1209,19 +1205,19 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>-6.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.6e-05</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="T11" t="n">
         <v>-2e-06</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-0.00115</v>
       </c>
     </row>
     <row r="12">
@@ -1230,7 +1226,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPY230705P00386000</t>
+          <t>SPY230712P00385000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1239,16 +1235,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1256,7 +1252,9 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>29</v>
+      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1277,19 +1275,19 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>-7.4e-05</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8e-05</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.7e-05</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>-2e-06</v>
+        <v>-0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.001214</v>
+        <v>-5e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1298,7 +1296,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPY230705P00389000</t>
+          <t>SPY230712P00386000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1307,16 +1305,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1324,7 +1322,9 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>13</v>
+      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1345,19 +1345,19 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>-0.000168</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.9e-05</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.000211</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-4e-06</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.002627</v>
+        <v>-9e-06</v>
       </c>
     </row>
     <row r="14">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPY230705P00390000</t>
+          <t>SPY230712P00387000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1393,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>60</v>
+        <v>614</v>
       </c>
       <c r="K14" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4921925781250001</v>
+        <v>0.2500075</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>-0.000177</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.2e-05</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.000222</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4e-06</v>
+        <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.002719</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPY230705P00391000</t>
+          <t>SPY230712P00388000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E15" t="n">
         <v>0.02</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.48438015625</v>
+        <v>0.2500075</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -1485,19 +1485,19 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>-0.000187</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.5e-05</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.000234</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.002817</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPY230705P00392000</t>
+          <t>SPY230712P00389000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1515,16 +1515,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1532,12 +1532,14 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>152</v>
+      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.476567734375</v>
+        <v>0.2500075</v>
       </c>
       <c r="M16" t="b">
         <v>0</v>
@@ -1553,19 +1555,19 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>-0.000198</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.8e-05</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000246</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.002919</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17">
@@ -1574,7 +1576,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPY230705P00393000</t>
+          <t>SPY230712P00390000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1583,16 +1585,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1601,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.460942890625</v>
+        <v>0.2500075</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -1623,19 +1625,19 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>-0.000167</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.2e-05</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00021</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4e-06</v>
+        <v>-0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.002411</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18">
@@ -1644,7 +1646,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPY230705P00394000</t>
+          <t>SPY230712P00391000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1653,7 +1655,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E18" t="n">
         <v>0.01</v>
@@ -1662,22 +1664,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.45313046875</v>
+        <v>0.2500075</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1693,19 +1695,19 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>-0.000176</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.5e-05</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.000221</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>-4e-06</v>
+        <v>-0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.002496</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19">
@@ -1714,7 +1716,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPY230705P00395000</t>
+          <t>SPY230712P00394000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1723,7 +1725,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E19" t="n">
         <v>0.01</v>
@@ -1732,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1741,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.445318046875</v>
+        <v>0.2500075</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -1763,19 +1765,19 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>-0.000187</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.9e-05</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.000233</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.002586</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
@@ -1784,7 +1786,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPY230705P00396000</t>
+          <t>SPY230712P00395000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1793,16 +1795,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1811,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1116</v>
+        <v>20</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.437505625</v>
+        <v>0.2500075</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -1833,19 +1835,19 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>-0.000198</v>
+        <v>-0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.2e-05</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.000246</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.00268</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -1854,7 +1856,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPY230705P00397000</t>
+          <t>SPY230712P00396000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1863,31 +1865,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="K21" t="n">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.429693203125</v>
+        <v>0.2500075</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -1903,19 +1905,19 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>-0.00021</v>
+        <v>-0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.6e-05</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.00026</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.00278</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -1924,7 +1926,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPY230705P00398000</t>
+          <t>SPY230712P00397000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1933,31 +1935,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5509</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.42188078125</v>
+        <v>0.2500075</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -1973,19 +1975,19 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>-0.000222</v>
+        <v>-0</v>
       </c>
       <c r="Q22" t="n">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.000275</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.002885</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
@@ -1994,7 +1996,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SPY230705P00399000</t>
+          <t>SPY230712P00398000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2003,31 +2005,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.414068359375</v>
+        <v>0.2500075</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -2043,19 +2045,19 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>-0.000236</v>
+        <v>-0</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.499999999999999e-05</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.000291</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-6e-06</v>
+        <v>-0</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.002997</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -2064,7 +2066,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPY230705P00400000</t>
+          <t>SPY230712P00399000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2073,31 +2075,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E24" t="n">
         <v>0.01</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4023497265625</v>
+        <v>0.2500075</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -2113,19 +2115,19 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>-0.000222</v>
+        <v>-0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.3e-05</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.000274</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.002744</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
@@ -2134,7 +2136,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPY230705P00401000</t>
+          <t>SPY230712P00400000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2143,31 +2145,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.39063109375</v>
+        <v>0.2500075</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
@@ -2183,19 +2185,19 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>-0.000207</v>
+        <v>-0</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.1e-05</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.000257</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.002499</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -2204,7 +2206,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPY230705P00402000</t>
+          <t>SPY230712P00401000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2213,31 +2215,29 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-50</v>
-      </c>
-      <c r="J26" t="n">
-        <v>59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.382818671875</v>
+        <v>0.2500075</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
@@ -2253,19 +2253,19 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>-0.00022</v>
+        <v>-0</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.600000000000001e-05</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.000273</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5e-06</v>
+        <v>-0</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.002595</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPY230705P00403000</t>
+          <t>SPY230712P00402000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2283,31 +2283,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1521</v>
+        <v>104</v>
       </c>
       <c r="K27" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.37500625</v>
+        <v>0.2500075</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -2323,19 +2323,19 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>-0.000235</v>
+        <v>-0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.1e-05</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.000289</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>-6e-06</v>
+        <v>-0</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.002696</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPY230705P00404000</t>
+          <t>SPY230712P00403000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2353,31 +2353,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-79.99999</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.367193828125</v>
+        <v>0.2500075</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -2393,19 +2393,19 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>-0.000251</v>
+        <v>-0</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.8e-05</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.000307</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-6e-06</v>
+        <v>-0</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.002804</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPY230705P00405000</t>
+          <t>SPY230712P00404000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2423,16 +2423,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E29" t="n">
         <v>0.03</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2440,12 +2440,14 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>33</v>
+      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.382818671875</v>
+        <v>0.2500075</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
@@ -2461,19 +2463,19 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>-0.0005730000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.000662</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.4e-05</v>
+        <v>-0</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.006301</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="30">
@@ -2482,7 +2484,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SPY230705P00406000</t>
+          <t>SPY230712P00405000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2491,31 +2493,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3515689843749999</v>
+        <v>0.2500075</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -2531,19 +2533,19 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>-0.000287</v>
+        <v>-0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.2e-05</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.000348</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>-7e-06</v>
+        <v>-0</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.003043</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -2552,7 +2554,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPY230705P00407000</t>
+          <t>SPY230712P00407000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2564,13 +2566,13 @@
         <v>407</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2578,12 +2580,14 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10</v>
+      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.367193828125</v>
+        <v>0.2500075</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -2599,19 +2603,19 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>-0.000668</v>
+        <v>-0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.000193</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.000763</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.6e-05</v>
+        <v>-0</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.006965</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32">
@@ -2620,7 +2624,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SPY230705P00408000</t>
+          <t>SPY230712P00408000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2635,10 +2639,10 @@
         <v>0.02</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2647,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3554751953124999</v>
+        <v>0.2500075</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
@@ -2669,19 +2673,19 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>-0.000642</v>
+        <v>-0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.000192</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.000735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.6e-05</v>
+        <v>-0</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.006495</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33">
@@ -2690,7 +2694,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SPY230705P00410000</t>
+          <t>SPY230712P00409000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2699,22 +2703,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E33" t="n">
         <v>0.01</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>14</v>
@@ -2723,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.33789724609375</v>
+        <v>0.2500075</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
@@ -2739,19 +2743,19 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>-0.000711</v>
+        <v>-0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.000222</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.000808</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>-1.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.00678</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34">
@@ -2760,7 +2764,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SPY230705P00412000</t>
+          <t>SPY230712P00410000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2769,31 +2773,31 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3203192968749999</v>
+        <v>0.2500075</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
@@ -2809,19 +2813,19 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>-0.000792</v>
+        <v>-0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.000258</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.000893</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.9e-05</v>
+        <v>-0</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.0071</v>
+        <v>-1e-06</v>
       </c>
     </row>
     <row r="35">
@@ -2830,7 +2834,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SPY230705P00413000</t>
+          <t>SPY230712P00411000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2839,31 +2843,31 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3086006640625</v>
+        <v>0.2500075</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -2879,19 +2883,19 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>-0.000758</v>
+        <v>-0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.000257</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.000857</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.9e-05</v>
+        <v>-0</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.006564</v>
+        <v>-2e-06</v>
       </c>
     </row>
     <row r="36">
@@ -2900,7 +2904,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SPY230705P00414000</t>
+          <t>SPY230712P00412000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2909,16 +2913,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2927,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.3007882421875</v>
+        <v>0.2500075</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
@@ -2949,19 +2953,19 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>-0.000831</v>
+        <v>-0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.000287</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.000933</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>-2e-05</v>
+        <v>-0</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.006962</v>
+        <v>-5e-06</v>
       </c>
     </row>
     <row r="37">
@@ -2970,7 +2974,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SPY230705P00415000</t>
+          <t>SPY230712P00413000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2979,31 +2983,31 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2910227148437499</v>
+        <v>0.2500075</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -3019,19 +3023,19 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>-0.000852</v>
+        <v>-1e-06</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.000304</v>
+        <v>1e-06</v>
       </c>
       <c r="R37" t="n">
-        <v>0.000954</v>
+        <v>1e-06</v>
       </c>
       <c r="S37" t="n">
-        <v>-2.1e-05</v>
+        <v>-0</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.006888</v>
+        <v>-1.1e-05</v>
       </c>
     </row>
     <row r="38">
@@ -3040,7 +3044,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SPY230705P00416000</t>
+          <t>SPY230712P00414000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3049,31 +3053,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E38" t="n">
         <v>0.02</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2812571874999999</v>
+        <v>0.12500875</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
@@ -3089,19 +3093,19 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>-0.000873</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.000322</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.000977</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-2.1e-05</v>
+        <v>-0</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.006811</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39">
@@ -3110,7 +3114,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SPY230705P00417000</t>
+          <t>SPY230712P00415000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3119,31 +3123,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E39" t="n">
         <v>0.02</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.273444765625</v>
+        <v>0.12500875</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -3159,19 +3163,19 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>-0.000966</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.000363</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.001072</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-2.4e-05</v>
+        <v>-0</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.007263</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40">
@@ -3180,7 +3184,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SPY230705P00418000</t>
+          <t>SPY230712P00416000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3189,31 +3193,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>165</v>
+        <v>441</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2617261328125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
@@ -3229,19 +3233,19 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>-0.00092</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.000363</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.001025</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-2.3e-05</v>
+        <v>-0</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.006648</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41">
@@ -3250,7 +3254,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SPY230705P00419000</t>
+          <t>SPY230712P00417000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3259,31 +3263,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E41" t="n">
         <v>0.02</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14916</v>
+        <v>14</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.2539137109375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
@@ -3299,19 +3303,19 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>-0.001025</v>
+        <v>-0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.000413</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0.001131</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-2.5e-05</v>
+        <v>-0</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.007116</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="42">
@@ -3320,7 +3324,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SPY230705P00420000</t>
+          <t>SPY230712P00418000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3329,31 +3333,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2993</v>
+        <v>53</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.24414818359375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
@@ -3369,19 +3373,19 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>-0.001058</v>
+        <v>-0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.000442</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.001164</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>-2.6e-05</v>
+        <v>-0</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.007039</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43">
@@ -3390,7 +3394,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SPY230705P00421000</t>
+          <t>SPY230712P00419000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3399,31 +3403,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E43" t="n">
         <v>0.02</v>
       </c>
       <c r="F43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.23438265625</v>
+        <v>0.12500875</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
@@ -3439,19 +3443,19 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>-0.001093</v>
+        <v>-0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.000474</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.0012</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-2.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.00696</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44">
@@ -3460,7 +3464,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SPY230705P00422000</t>
+          <t>SPY230712P00420000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3469,31 +3473,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E44" t="n">
         <v>0.02</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>824</v>
+        <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>1164</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.226570234375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
@@ -3509,19 +3513,19 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>-0.001233</v>
+        <v>-0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.000548</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0.00134</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-3e-05</v>
+        <v>-0</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.007513</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45">
@@ -3530,7 +3534,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SPY230705P00423000</t>
+          <t>SPY230712P00421000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3539,31 +3543,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E45" t="n">
         <v>0.02</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.21680470703125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
@@ -3579,19 +3583,19 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>-0.001282</v>
+        <v>-0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.000594</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.001389</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>-3.1e-05</v>
+        <v>-0</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.007448</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46">
@@ -3600,7 +3604,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SPY230705P00424000</t>
+          <t>SPY230712P00422000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3609,31 +3613,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E46" t="n">
         <v>0.02</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.030000001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-60.000004</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>47</v>
+        <v>4256</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.21680470703125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
@@ -3649,19 +3653,19 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>-0.002062</v>
+        <v>-0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.000915</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.002142</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>-5e-05</v>
+        <v>-0</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.011476</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47">
@@ -3670,7 +3674,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SPY230705P00425000</t>
+          <t>SPY230712P00423000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3679,31 +3683,31 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E47" t="n">
         <v>0.02</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.030000001</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-60.000004</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.2070391796875</v>
+        <v>0.12500875</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
@@ -3719,19 +3723,19 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>-0.002191</v>
+        <v>-0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.001013</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.002262</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>-5.4e-05</v>
+        <v>-0</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.011569</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48">
@@ -3740,7 +3744,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SPY230705P00426000</t>
+          <t>SPY230712P00424000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3749,31 +3753,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.19727365234375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -3789,19 +3793,19 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>-0.002337</v>
+        <v>-0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.001127</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.002399</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>-5.7e-05</v>
+        <v>-0</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.011681</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49">
@@ -3810,7 +3814,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SPY230705P00427000</t>
+          <t>SPY230712P00425000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3819,31 +3823,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E49" t="n">
         <v>0.03</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2811</v>
+        <v>337</v>
       </c>
       <c r="K49" t="n">
-        <v>1291</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.187508125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
@@ -3859,19 +3863,19 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>-0.002506</v>
+        <v>-0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.001262</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.002555</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>-6.1e-05</v>
+        <v>-0</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.011815</v>
+        <v>-1e-06</v>
       </c>
     </row>
     <row r="50">
@@ -3880,7 +3884,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SPY230705P00428000</t>
+          <t>SPY230712P00426000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3889,31 +3893,31 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E50" t="n">
         <v>0.03</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-57.142853</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1260</v>
+        <v>216</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.17774259765625</v>
+        <v>0.12500875</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
@@ -3929,19 +3933,19 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>-0.002702</v>
+        <v>-1e-06</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.001426</v>
+        <v>1e-06</v>
       </c>
       <c r="R50" t="n">
-        <v>0.002735</v>
+        <v>1e-06</v>
       </c>
       <c r="S50" t="n">
-        <v>-6.600000000000001e-05</v>
+        <v>-0</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.011978</v>
+        <v>-4e-06</v>
       </c>
     </row>
     <row r="51">
@@ -3950,7 +3954,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SPY230705P00429000</t>
+          <t>SPY230712P00427000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3959,31 +3963,31 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F51" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1002</v>
+        <v>9986</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1679770703125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -3999,19 +4003,19 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>-0.002932</v>
+        <v>-4e-06</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.001624</v>
+        <v>6e-06</v>
       </c>
       <c r="R51" t="n">
-        <v>0.002944</v>
+        <v>4e-06</v>
       </c>
       <c r="S51" t="n">
-        <v>-7.2e-05</v>
+        <v>-0</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.012177</v>
+        <v>-2.4e-05</v>
       </c>
     </row>
     <row r="52">
@@ -4020,7 +4024,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SPY230705P00430000</t>
+          <t>SPY230712P00428000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4029,31 +4033,31 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F52" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>916</v>
+        <v>522</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.164070859375</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
@@ -4069,19 +4073,19 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>-0.004284</v>
+        <v>-0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.002337</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
-        <v>0.004138</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>-0.000105</v>
+        <v>-0</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.016698</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53">
@@ -4090,7 +4094,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SPY230705P00431000</t>
+          <t>SPY230712P00429000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4099,31 +4103,31 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E53" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>-0.030000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-42.857143</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>654</v>
+        <v>1005</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.15430533203125</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -4139,19 +4143,19 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>-0.004783</v>
+        <v>-0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.002742</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0.004566</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>-0.000117</v>
+        <v>-0</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.017308</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="54">
@@ -4160,7 +4164,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SPY230705P00432000</t>
+          <t>SPY230712P00430000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4169,31 +4173,31 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.020000001</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-40.000004</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>330</v>
+        <v>12889</v>
       </c>
       <c r="K54" t="n">
-        <v>4712</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.143563251953125</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
@@ -4209,19 +4213,19 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>-0.005142</v>
+        <v>-0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.003144</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.00487</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>-0.000125</v>
+        <v>-0</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.017151</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55">
@@ -4230,7 +4234,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SPY230705P00433000</t>
+          <t>SPY230712P00431000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4239,31 +4243,31 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E55" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.049999997</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-62.5</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2061</v>
+        <v>1891</v>
       </c>
       <c r="K55" t="n">
-        <v>8372</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.132821171875</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -4279,19 +4283,19 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>-0.00558</v>
+        <v>-0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.003654</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.005237</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.000136</v>
+        <v>-0</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.017033</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56">
@@ -4300,7 +4304,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SPY230705P00434000</t>
+          <t>SPY230712P00432000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4309,31 +4313,31 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.060000002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-66.66667</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>1016</v>
+        <v>2341</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.122079091796875</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
@@ -4349,19 +4353,19 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>-0.006125</v>
+        <v>-0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.004318</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.005689</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>-0.000149</v>
+        <v>-0</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.01697</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57">
@@ -4370,7 +4374,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SPY230705P00435000</t>
+          <t>SPY230712P00433000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4379,31 +4383,31 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-72.72727</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3763</v>
+        <v>3792</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.1157314990234375</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
@@ -4419,19 +4423,19 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>-0.00882</v>
+        <v>-1e-06</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.006281</v>
+        <v>4e-06</v>
       </c>
       <c r="R57" t="n">
-        <v>0.007845</v>
+        <v>1e-06</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.000215</v>
+        <v>-0</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.022133</v>
+        <v>-4e-06</v>
       </c>
     </row>
     <row r="58">
@@ -4440,7 +4444,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SPY230705P00436000</t>
+          <t>SPY230712P00434000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4449,31 +4453,31 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4828</v>
+        <v>6142</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.104501142578125</v>
+        <v>0.0312596875</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
@@ -4489,19 +4493,19 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>-0.009893000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.007691</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.008673</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>-0.000241</v>
+        <v>-0</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.022026</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59">
@@ -4510,7 +4514,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SPY230705P00437000</t>
+          <t>SPY230712P00435000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4519,31 +4523,31 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-81.818184</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>6242</v>
+        <v>22910</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.09327078613281251</v>
+        <v>0.0312596875</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
@@ -4559,19 +4563,19 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>-0.011355</v>
+        <v>-0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.009716000000000001</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0.00978</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.000277</v>
+        <v>-0</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.022078</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60">
@@ -4580,7 +4584,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SPY230705P00438000</t>
+          <t>SPY230712P00436000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4589,31 +4593,31 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06</v>
+        <v>0.52</v>
       </c>
       <c r="F60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-78.57143000000001</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>10536</v>
+        <v>13028</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.08448181152343752</v>
+        <v>0.0312596875</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
@@ -4629,19 +4633,19 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>-0.015812</v>
+        <v>-0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.014278</v>
+        <v>1e-06</v>
       </c>
       <c r="R60" t="n">
-        <v>0.013017</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>-0.000385</v>
+        <v>-0</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.026481</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61">
@@ -4650,7 +4654,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SPY230705P00439000</t>
+          <t>SPY230712P00437000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4659,31 +4663,31 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-81.57895000000001</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>9897</v>
+        <v>29120</v>
       </c>
       <c r="K61" t="n">
-        <v>6680</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.07715766601562501</v>
+        <v>0.01563484375</v>
       </c>
       <c r="M61" t="b">
         <v>0</v>
@@ -4699,19 +4703,19 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>-0.025394</v>
+        <v>-0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.023362</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>0.019453</v>
+        <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>-0.000619</v>
+        <v>-0</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.035898</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62">
@@ -4720,7 +4724,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SPY230705P00440000</t>
+          <t>SPY230712P00438000</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4729,31 +4733,31 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.44000003</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-81.48148</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>17040</v>
+        <v>23954</v>
       </c>
       <c r="K62" t="n">
-        <v>27710</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.06934524414062501</v>
+        <v>0.01563484375</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -4769,19 +4773,19 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>-0.041863</v>
+        <v>-1e-06</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.039251</v>
+        <v>1.1e-05</v>
       </c>
       <c r="R62" t="n">
-        <v>0.029374</v>
+        <v>1e-06</v>
       </c>
       <c r="S62" t="n">
-        <v>-0.00102</v>
+        <v>-0</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.048245</v>
+        <v>-1e-06</v>
       </c>
     </row>
     <row r="63">
@@ -4790,7 +4794,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SPY230705P00441000</t>
+          <t>SPY230712P00439000</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4799,31 +4803,31 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E63" t="n">
-        <v>0.18</v>
+        <v>1.37</v>
       </c>
       <c r="F63" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.59</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-76.623375</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>15269</v>
+        <v>25015</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0649507568359375</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="M63" t="b">
         <v>0</v>
@@ -4839,19 +4843,19 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>-0.084726</v>
+        <v>-2.9e-05</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.072753</v>
+        <v>0.000684</v>
       </c>
       <c r="R63" t="n">
-        <v>0.050995</v>
+        <v>2.8e-05</v>
       </c>
       <c r="S63" t="n">
-        <v>-0.002065</v>
+        <v>-0</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.07738399999999999</v>
+        <v>-9e-06</v>
       </c>
     </row>
     <row r="64">
@@ -4860,7 +4864,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SPY230705P00442000</t>
+          <t>SPY230712P00440000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4869,34 +4873,34 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E64" t="n">
-        <v>0.31</v>
+        <v>1.83</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.76000005</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-71.02804</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>34633</v>
+        <v>14856</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0600679931640625</v>
+        <v>1e-05</v>
       </c>
       <c r="M64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -4909,19 +4913,19 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>-0.164563</v>
+        <v>-1</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.125581</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.08140600000000001</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>-0.004011</v>
+        <v>-0.012053</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.111719</v>
+        <v>0.063279</v>
       </c>
     </row>
     <row r="65">
@@ -4930,7 +4934,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SPY230705P00443000</t>
+          <t>SPY230712P00441000</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4939,34 +4943,34 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.92</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-62.162163</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>83070</v>
+        <v>7840</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.05811488769531251</v>
+        <v>1e-05</v>
       </c>
       <c r="M65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -4979,19 +4983,19 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>-0.314477</v>
+        <v>-1</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.185942</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0.116616</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>-0.007669</v>
+        <v>-0.01208</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.149298</v>
+        <v>0.06342200000000001</v>
       </c>
     </row>
     <row r="66">
@@ -5000,7 +5004,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SPY230705P00444000</t>
+          <t>SPY230712P00442000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5009,31 +5013,31 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E66" t="n">
-        <v>0.99</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>-1.06</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-51.707314</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>39766</v>
+        <v>1749</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0561617822265625</v>
+        <v>1e-05</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -5049,19 +5053,19 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>-0.516957</v>
+        <v>-1</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.216038</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0.130937</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>-0.012614</v>
+        <v>-0.012108</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.150731</v>
+        <v>0.063566</v>
       </c>
     </row>
     <row r="67">
@@ -5070,7 +5074,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SPY230705P00445000</t>
+          <t>SPY230712P00443000</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5079,31 +5083,31 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E67" t="n">
-        <v>1.58</v>
+        <v>3.72</v>
       </c>
       <c r="F67" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.9699999</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-38.039215</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>8263</v>
+        <v>620</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0551852294921875</v>
+        <v>1e-05</v>
       </c>
       <c r="M67" t="b">
         <v>1</v>
@@ -5119,19 +5123,19 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>-0.723767</v>
+        <v>-1</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.184462</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>0.109855</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.017676</v>
+        <v>-0.012135</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.10516</v>
+        <v>0.06371</v>
       </c>
     </row>
     <row r="68">
@@ -5140,7 +5144,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SPY230705P00446000</t>
+          <t>SPY230712P00444000</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5149,31 +5153,31 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E68" t="n">
-        <v>2.38</v>
+        <v>4.51</v>
       </c>
       <c r="F68" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.0899999</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-31.412102</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4598</v>
+        <v>317</v>
       </c>
       <c r="K68" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.05445281494140625</v>
+        <v>1e-05</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -5189,19 +5193,19 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>-0.876771</v>
+        <v>-1</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.113935</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.066953</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>-0.021441</v>
+        <v>-0.012163</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.034862</v>
+        <v>0.06385399999999999</v>
       </c>
     </row>
     <row r="69">
@@ -5210,7 +5214,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SPY230705P00447000</t>
+          <t>SPY230712P00445000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -5219,31 +5223,31 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E69" t="n">
-        <v>3.22</v>
+        <v>5.37</v>
       </c>
       <c r="F69" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.3399999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-9.550560000000001</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1622</v>
+        <v>511</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.05445281494140625</v>
+        <v>1e-05</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -5259,19 +5263,19 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>-0.956794</v>
+        <v>-1</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.051279</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.030134</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.023437</v>
+        <v>-0.01219</v>
       </c>
       <c r="T69" t="n">
-        <v>0.020501</v>
+        <v>0.063998</v>
       </c>
     </row>
     <row r="70">
@@ -5280,7 +5284,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SPY230705P00448000</t>
+          <t>SPY230712P00446000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -5289,31 +5293,31 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E70" t="n">
-        <v>4.28</v>
+        <v>6.28</v>
       </c>
       <c r="F70" t="n">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>4.22</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.62999964</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-12.830951</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>719</v>
+        <v>72</v>
       </c>
       <c r="K70" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.047861083984375</v>
+        <v>1e-05</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -5329,19 +5333,19 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>-0.995089</v>
+        <v>-1</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.009050000000000001</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0.004675</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>-0.024422</v>
+        <v>-0.012217</v>
       </c>
       <c r="T70" t="n">
-        <v>0.058514</v>
+        <v>0.064141</v>
       </c>
     </row>
     <row r="71">
@@ -5350,7 +5354,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SPY230705P00449000</t>
+          <t>SPY230712P00447000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -5359,31 +5363,31 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E71" t="n">
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
       <c r="F71" t="n">
-        <v>4.81</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.1500001</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-2.80374</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.1042570043945312</v>
+        <v>1e-05</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -5399,19 +5403,19 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>-0.929382</v>
+        <v>-1</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.039469</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.044407</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.022884</v>
+        <v>-0.012245</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.055673</v>
+        <v>0.06428499999999999</v>
       </c>
     </row>
     <row r="72">
@@ -5420,7 +5424,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SPY230705P00450000</t>
+          <t>SPY230712P00448000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5429,31 +5433,31 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E72" t="n">
-        <v>6.4</v>
+        <v>9.08</v>
       </c>
       <c r="F72" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>6.43</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.36000013</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-5.3254457</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>28</v>
+        <v>697</v>
       </c>
       <c r="K72" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.1184170190429688</v>
+        <v>1e-05</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
@@ -5469,19 +5473,19 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>-0.9392</v>
+        <v>-1</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.030941</v>
+        <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0.039541</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>-0.023178</v>
+        <v>-0.012272</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.056216</v>
+        <v>0.064429</v>
       </c>
     </row>
     <row r="73">
@@ -5490,7 +5494,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SPY230705P00451000</t>
+          <t>SPY230712P00449000</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -5499,31 +5503,31 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E73" t="n">
-        <v>7.62</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>7.43</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.14000034</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-1.804128</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.131844619140625</v>
+        <v>1e-05</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -5539,19 +5543,19 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>-0.947053</v>
+        <v>-1</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.024922</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0.03546</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>-0.023423</v>
+        <v>-0.0123</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.055393</v>
+        <v>0.06457300000000001</v>
       </c>
     </row>
     <row r="74">
@@ -5560,7 +5564,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SPY230705P00452000</t>
+          <t>SPY230712P00450000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5569,31 +5573,31 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E74" t="n">
-        <v>8.73</v>
+        <v>10.5</v>
       </c>
       <c r="F74" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>8.43</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.67999935</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>8.447196999999999</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.1452722192382813</v>
+        <v>1e-05</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -5609,19 +5613,19 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>-0.952786</v>
+        <v>-1</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.020643</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0.032363</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>-0.023617</v>
+        <v>-0.012327</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.055541</v>
+        <v>0.064717</v>
       </c>
     </row>
     <row r="75">
@@ -5630,7 +5634,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SPY230705P00453000</t>
+          <t>SPY230712P00451000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5639,31 +5643,31 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E75" t="n">
-        <v>9.15</v>
+        <v>13.35</v>
       </c>
       <c r="F75" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>9.43</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>-7.51</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-45.078033</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.15821154296875</v>
+        <v>1e-05</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
@@ -5679,19 +5683,19 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>-0.9576</v>
+        <v>-1</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.017382</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0.029678</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>-0.023789</v>
+        <v>-0.012354</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.054941</v>
+        <v>0.064861</v>
       </c>
     </row>
     <row r="76">
@@ -5700,7 +5704,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SPY230705P00454000</t>
+          <t>SPY230712P00452000</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5709,31 +5713,31 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E76" t="n">
-        <v>10.24</v>
+        <v>14.35</v>
       </c>
       <c r="F76" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.27999973</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>2.8112423</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.1711508666992188</v>
+        <v>1e-05</v>
       </c>
       <c r="M76" t="b">
         <v>1</v>
@@ -5749,19 +5753,19 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>-0.961329</v>
+        <v>-1</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.014911</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0.027541</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>-0.023934</v>
+        <v>-0.012382</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.055016</v>
+        <v>0.06500400000000001</v>
       </c>
     </row>
     <row r="77">
@@ -5770,7 +5774,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SPY230705P00456000</t>
+          <t>SPY230712P00453000</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5779,16 +5783,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E77" t="n">
-        <v>19.24</v>
+        <v>14.64</v>
       </c>
       <c r="F77" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>12.43</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5796,12 +5800,14 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6</v>
+      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1960529614257813</v>
+        <v>1e-05</v>
       </c>
       <c r="M77" t="b">
         <v>1</v>
@@ -5817,19 +5823,19 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>-0.967345</v>
+        <v>-1</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.011332</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0.023976</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>-0.02419</v>
+        <v>-0.012409</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.054018</v>
+        <v>0.065148</v>
       </c>
     </row>
     <row r="78">
@@ -5838,7 +5844,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SPY230705P00458000</t>
+          <t>SPY230712P00454000</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5847,16 +5853,16 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>16.47</v>
+        <v>16.34</v>
       </c>
       <c r="F78" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>14.43</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5865,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2202226416015625</v>
+        <v>1e-05</v>
       </c>
       <c r="M78" t="b">
         <v>1</v>
@@ -5887,19 +5893,19 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>-0.9717789999999999</v>
+        <v>-1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.008939000000000001</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0.021245</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>-0.024407</v>
+        <v>-0.012437</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.052899</v>
+        <v>0.065292</v>
       </c>
     </row>
     <row r="79">
@@ -5908,7 +5914,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SPY230705P00461000</t>
+          <t>SPY230712P00455000</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5917,31 +5923,31 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E79" t="n">
-        <v>17.53</v>
+        <v>15.41</v>
       </c>
       <c r="F79" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>17.43</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>-7.4399986</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-29.795752</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2553785400390626</v>
+        <v>1e-05</v>
       </c>
       <c r="M79" t="b">
         <v>1</v>
@@ -5957,19 +5963,19 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>-0.976592</v>
+        <v>-1</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.006592</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0.018168</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.024688</v>
+        <v>-0.012464</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.051186</v>
+        <v>0.06543599999999999</v>
       </c>
     </row>
     <row r="80">
@@ -5978,7 +5984,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SPY230705P00462000</t>
+          <t>SPY230712P00456000</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5987,16 +5993,16 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E80" t="n">
-        <v>25.27</v>
+        <v>18.18</v>
       </c>
       <c r="F80" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>18.43</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6004,12 +6010,14 @@
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6</v>
+      </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2670971728515625</v>
+        <v>1e-05</v>
       </c>
       <c r="M80" t="b">
         <v>1</v>
@@ -6025,19 +6033,19 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>-0.977757</v>
+        <v>-1</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.006037</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0.017403</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>-0.024771</v>
+        <v>-0.012491</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.051181</v>
+        <v>0.06558</v>
       </c>
     </row>
     <row r="81">
@@ -6046,7 +6054,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SPY230705P00464000</t>
+          <t>SPY230712P00457000</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6055,31 +6063,31 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E81" t="n">
-        <v>20.46</v>
+        <v>18.47</v>
       </c>
       <c r="F81" t="n">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>20.42</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5099983</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>2.5563824</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2871165039062499</v>
+        <v>1e-05</v>
       </c>
       <c r="M81" t="b">
         <v>1</v>
@@ -6095,19 +6103,19 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>-0.980829</v>
+        <v>-1</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.004952</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>0.015344</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>-0.024955</v>
+        <v>-0.012519</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.044631</v>
+        <v>0.065723</v>
       </c>
     </row>
     <row r="82">
@@ -6116,7 +6124,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SPY230705P00469000</t>
+          <t>SPY230712P00459000</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6125,22 +6133,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E82" t="n">
-        <v>25.82</v>
+        <v>20.47</v>
       </c>
       <c r="F82" t="n">
-        <v>24.8</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>25.42</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>-7.1500015</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-21.686386</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -6149,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.34180345703125</v>
+        <v>1e-05</v>
       </c>
       <c r="M82" t="b">
         <v>1</v>
@@ -6165,19 +6173,19 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>-0.984602</v>
+        <v>-1</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.003449</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>0.012724</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>-0.02532</v>
+        <v>-0.012574</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.04226</v>
+        <v>0.066011</v>
       </c>
     </row>
     <row r="83">
@@ -6186,7 +6194,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SPY230705P00472000</t>
+          <t>SPY230712P00460000</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6195,16 +6203,16 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E83" t="n">
-        <v>35.16</v>
+        <v>21.37</v>
       </c>
       <c r="F83" t="n">
-        <v>27.79</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>28.42</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6212,12 +6220,14 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.3735414208984374</v>
+        <v>1e-05</v>
       </c>
       <c r="M83" t="b">
         <v>1</v>
@@ -6233,19 +6243,19 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>-0.9862570000000001</v>
+        <v>-1</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.002862</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0.011537</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>-0.025525</v>
+        <v>-0.012601</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.040741</v>
+        <v>0.06615500000000001</v>
       </c>
     </row>
     <row r="84">
@@ -6254,7 +6264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SPY230705P00475000</t>
+          <t>SPY230712P00461000</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6263,16 +6273,16 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="E84" t="n">
-        <v>38.45</v>
+        <v>17.53</v>
       </c>
       <c r="F84" t="n">
-        <v>30.79</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>31.42</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6280,12 +6290,14 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.4047911083984375</v>
+        <v>1e-05</v>
       </c>
       <c r="M84" t="b">
         <v>1</v>
@@ -6301,19 +6313,19 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>-0.9875699999999999</v>
+        <v>-1</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.002422</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>0.010578</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>-0.025721</v>
+        <v>-0.012628</v>
       </c>
       <c r="T84" t="n">
-        <v>-0.039531</v>
+        <v>0.066299</v>
       </c>
     </row>
     <row r="85">
@@ -6322,7 +6334,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SPY230705P00477000</t>
+          <t>SPY230712P00462000</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6331,16 +6343,16 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="E85" t="n">
-        <v>40.42</v>
+        <v>23.58</v>
       </c>
       <c r="F85" t="n">
-        <v>32.79</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>33.42</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6348,12 +6360,14 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.424810439453125</v>
+        <v>1e-05</v>
       </c>
       <c r="M85" t="b">
         <v>1</v>
@@ -6369,19 +6383,19 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>-0.988397</v>
+        <v>-1</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.002174</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.009965</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>-0.02585</v>
+        <v>-0.012656</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.037978</v>
+        <v>0.066442</v>
       </c>
     </row>
     <row r="86">
@@ -6390,7 +6404,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SPY230705P00478000</t>
+          <t>SPY230712P00463000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6399,16 +6413,16 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E86" t="n">
-        <v>41.44</v>
+        <v>25.32</v>
       </c>
       <c r="F86" t="n">
-        <v>33.79</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>34.42</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6416,12 +6430,14 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6</v>
+      </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.43555251953125</v>
+        <v>1e-05</v>
       </c>
       <c r="M86" t="b">
         <v>1</v>
@@ -6437,19 +6453,19 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>-0.988643</v>
+        <v>-1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.002081</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0.009782000000000001</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>-0.025911</v>
+        <v>-0.012683</v>
       </c>
       <c r="T86" t="n">
-        <v>-0.038494</v>
+        <v>0.06658600000000001</v>
       </c>
     </row>
     <row r="87">
@@ -6458,7 +6474,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SPY230705P00484000</t>
+          <t>SPY230712P00464000</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6467,16 +6483,16 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="E87" t="n">
-        <v>47.6</v>
+        <v>26.26</v>
       </c>
       <c r="F87" t="n">
-        <v>39.79</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>40.42</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6484,12 +6500,14 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9</v>
+      </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.495122236328125</v>
+        <v>1e-05</v>
       </c>
       <c r="M87" t="b">
         <v>1</v>
@@ -6505,19 +6523,19 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>-0.990366</v>
+        <v>-1</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.001586</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0.008475</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.026282</v>
+        <v>-0.012711</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.03591</v>
+        <v>0.06673</v>
       </c>
     </row>
     <row r="88">
@@ -6526,7 +6544,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SPY230705P00486000</t>
+          <t>SPY230712P00465000</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6535,16 +6553,16 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E88" t="n">
-        <v>49.36</v>
+        <v>27.32</v>
       </c>
       <c r="F88" t="n">
-        <v>41.79</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>42.42</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6552,12 +6570,14 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5</v>
+      </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5141650146484374</v>
+        <v>1e-05</v>
       </c>
       <c r="M88" t="b">
         <v>1</v>
@@ -6573,19 +6593,19 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>-0.990877</v>
+        <v>-1</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.001456</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0.00808</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>-0.026403</v>
+        <v>-0.012738</v>
       </c>
       <c r="T88" t="n">
-        <v>-0.034552</v>
+        <v>0.066874</v>
       </c>
     </row>
     <row r="89">
@@ -6594,7 +6614,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SPY230705P00488000</t>
+          <t>SPY230712P00466000</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6603,16 +6623,16 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E89" t="n">
-        <v>51.04</v>
+        <v>28.03</v>
       </c>
       <c r="F89" t="n">
-        <v>43.79</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>44.42</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6620,12 +6640,14 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.53320779296875</v>
+        <v>1e-05</v>
       </c>
       <c r="M89" t="b">
         <v>1</v>
@@ -6641,19 +6663,19 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>-0.991319</v>
+        <v>-1</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.001344</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0.007736</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>-0.026524</v>
+        <v>-0.012765</v>
       </c>
       <c r="T89" t="n">
-        <v>-0.033498</v>
+        <v>0.06701799999999999</v>
       </c>
     </row>
     <row r="90">
@@ -6662,7 +6684,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SPY230705P00489000</t>
+          <t>SPY230712P00467000</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6671,16 +6693,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="E90" t="n">
-        <v>52.49</v>
+        <v>29.03</v>
       </c>
       <c r="F90" t="n">
-        <v>44.79</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>45.42</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6688,12 +6710,14 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3</v>
+      </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5429733203125001</v>
+        <v>1e-05</v>
       </c>
       <c r="M90" t="b">
         <v>1</v>
@@ -6709,19 +6733,929 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>-0.991493</v>
+        <v>-1</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.001297</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0.0076</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>-0.026583</v>
+        <v>-0.012793</v>
       </c>
       <c r="T90" t="n">
-        <v>-0.033389</v>
+        <v>0.067162</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SPY230712P00468000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>468</v>
+      </c>
+      <c r="E91" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M91" t="b">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>-0.01282</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0.067305</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SPY230712P00469000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>469</v>
+      </c>
+      <c r="E92" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M92" t="b">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>-0.012847</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0.067449</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SPY230712P00470000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>470</v>
+      </c>
+      <c r="E93" t="n">
+        <v>32.18</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M93" t="b">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>-0.012875</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0.067593</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SPY230712P00471000</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>471</v>
+      </c>
+      <c r="E94" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M94" t="b">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>-0.012902</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.06773700000000001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SPY230712P00472000</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>472</v>
+      </c>
+      <c r="E95" t="n">
+        <v>32.91</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M95" t="b">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>-0.01293</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0.067881</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SPY230712P00473000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>473</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M96" t="b">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>-0.012957</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0.068024</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SPY230712P00474000</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>474</v>
+      </c>
+      <c r="E97" t="n">
+        <v>35.43</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M97" t="b">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
+        <v>-0.012984</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.06816800000000001</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SPY230712P00484000</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>484</v>
+      </c>
+      <c r="E98" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M98" t="b">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>-0.013258</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0.069606</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SPY230712P00485000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>485</v>
+      </c>
+      <c r="E99" t="n">
+        <v>45.93</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M99" t="b">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>-0.013286</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0.06975000000000001</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SPY230712P00496000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>496</v>
+      </c>
+      <c r="E100" t="n">
+        <v>57.95</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M100" t="b">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>-0.013587</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0.07133200000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SPY230712P00497000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>497</v>
+      </c>
+      <c r="E101" t="n">
+        <v>58.24</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M101" t="b">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>-0.013614</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0.071476</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SPY230712P00498000</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>498</v>
+      </c>
+      <c r="E102" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M102" t="b">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>-0.013642</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.07162</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SPY230712P00510000</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>510</v>
+      </c>
+      <c r="E103" t="n">
+        <v>71.15000000000001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M103" t="b">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>-0.013971</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0.07334599999999999</v>
       </c>
     </row>
   </sheetData>
